--- a/testcases/case24_ieee_rts.xlsx
+++ b/testcases/case24_ieee_rts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="477" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="busbar" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,16 +14,18 @@
     <sheet name="transformer" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="wind" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="shunt" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="zone" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="zonalNTC" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="generator" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="zone" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="347">
   <si>
     <t>name</t>
   </si>
@@ -772,7 +774,10 @@
     <t>to_zone</t>
   </si>
   <si>
-    <t>TransferCapacity(MW)</t>
+    <t>TransferCapacityTo(MW)</t>
+  </si>
+  <si>
+    <t>TransferCapacityFr(MW)</t>
   </si>
   <si>
     <t>RampDown(MW/hr)</t>
@@ -1052,6 +1057,15 @@
   </si>
   <si>
     <t>baseMVA</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>timeperiod</t>
+  </si>
+  <si>
+    <t>reserve(MW)</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1111,6 +1125,90 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -1142,13 +1240,81 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1170,13 +1336,13 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="1" sqref="M2:N34 D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1212,770 +1378,770 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="0" t="s">
+      <c r="D22" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="0" t="s">
+      <c r="D23" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="0" t="s">
+      <c r="D24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="0" t="s">
+      <c r="C25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1990,6 +2156,966 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AL65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="M2:N34 A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+    </row>
+    <row r="2" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:R1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="M2:N34 B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1997,13 +3123,13 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M2:N34 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,342 +3153,342 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="E18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2384,13 +3510,13 @@
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="M2:N34 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2435,1355 +3561,1355 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="0" t="s">
+      <c r="L3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="s">
+      <c r="L4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="0" t="s">
+      <c r="L5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
+      <c r="L6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="0" t="s">
+      <c r="L7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="0" t="s">
+      <c r="L8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
+      <c r="L9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="0" t="s">
+      <c r="L10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="0" t="s">
+      <c r="L11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="0" t="s">
+      <c r="L12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="0" t="s">
+      <c r="L13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="0" t="s">
+      <c r="L14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="0" t="s">
+      <c r="L15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="0" t="s">
+      <c r="L16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="0" t="s">
+      <c r="L17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="0" t="s">
+      <c r="L18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="0" t="s">
+      <c r="L19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="0" t="s">
+      <c r="L20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="0" t="s">
+      <c r="L21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M22" s="0" t="s">
+      <c r="L22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="0" t="s">
+      <c r="L23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="0" t="s">
+      <c r="L24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="0" t="s">
+      <c r="L25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="0" t="s">
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="K26" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M26" s="0" t="s">
+      <c r="L26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K27" s="0" t="s">
+      <c r="K27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="0" t="s">
+      <c r="L27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M28" s="0" t="s">
+      <c r="L28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="0" t="s">
+      <c r="L29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L30" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="0" t="s">
+      <c r="L30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="K31" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="0" t="s">
+      <c r="L31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="0" t="s">
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="K32" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="0" t="s">
+      <c r="L32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K33" s="0" t="s">
+      <c r="K33" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="0" t="s">
+      <c r="L33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="0" t="s">
+      <c r="D34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K34" s="0" t="s">
+      <c r="K34" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L34" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="M34" s="0" t="s">
+      <c r="L34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3805,13 +4931,13 @@
   </sheetPr>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="M2:N34 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,252 +4991,252 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="O2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="K3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="O3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="0" t="s">
+      <c r="K4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="0" t="s">
+      <c r="O4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="0" t="s">
+      <c r="K5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="O5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="0" t="s">
+      <c r="O5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="0" t="s">
+      <c r="K6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="O6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="0" t="s">
+      <c r="O6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4132,13 +5258,13 @@
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M2:N34 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4197,13 +5323,13 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="M2:N34 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,18 +5382,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="M2:N34 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>246</v>
       </c>
@@ -4279,6 +5405,26 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>249</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4299,13 +5445,13 @@
   </sheetPr>
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4340,45 +5486,45 @@
         <v>242</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
@@ -4402,42 +5548,48 @@
         <v>23</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
+        <v>262</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>10</v>
@@ -4461,160 +5613,178 @@
         <v>23</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
+        <v>262</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="0" t="s">
+      <c r="K4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="U3" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="P4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="G5" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
+      <c r="I5" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="T4" s="0" t="s">
+      <c r="K5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S5" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="T5" s="0" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="U5" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
@@ -4638,42 +5808,48 @@
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
+        <v>262</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>10</v>
@@ -4697,166 +5873,184 @@
         <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
+        <v>262</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>267</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
+        <v>262</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S8" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>267</v>
-      </c>
       <c r="H9" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
+        <v>262</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S9" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>13</v>
@@ -4871,51 +6065,57 @@
         <v>13</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>10</v>
+        <v>283</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S10" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>13</v>
@@ -4930,51 +6130,57 @@
         <v>13</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>10</v>
+        <v>283</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S11" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>13</v>
@@ -4989,222 +6195,246 @@
         <v>13</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>10</v>
+        <v>283</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S12" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>10</v>
+      <c r="K13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S13" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>10</v>
+      <c r="K14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S14" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>10</v>
+      <c r="K15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S15" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>10</v>
@@ -5213,7 +6443,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>13</v>
@@ -5222,32 +6452,38 @@
         <v>13</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>105</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>10</v>
+        <v>301</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S16" s="0" t="s">
         <v>13</v>
       </c>
@@ -5258,12 +6494,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>10</v>
@@ -5275,7 +6511,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>26</v>
@@ -5287,42 +6523,48 @@
         <v>19</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>10</v>
+        <v>304</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P17" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S17" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>10</v>
@@ -5334,7 +6576,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>26</v>
@@ -5346,42 +6588,48 @@
         <v>19</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>10</v>
+        <v>304</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P18" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S18" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>10</v>
@@ -5393,7 +6641,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>26</v>
@@ -5405,42 +6653,48 @@
         <v>19</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>10</v>
+        <v>304</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S19" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>10</v>
@@ -5452,7 +6706,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>26</v>
@@ -5464,42 +6718,48 @@
         <v>19</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>10</v>
+        <v>304</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P20" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S20" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>10</v>
@@ -5511,7 +6771,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>26</v>
@@ -5523,160 +6783,178 @@
         <v>19</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="0" t="s">
-        <v>10</v>
+        <v>304</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P21" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S21" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>312</v>
-      </c>
       <c r="H22" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>10</v>
+        <v>304</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P22" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S22" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="U23" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="P23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="S23" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="T23" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="U23" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>10</v>
@@ -5694,7 +6972,7 @@
         <v>225</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>105</v>
@@ -5702,40 +6980,46 @@
       <c r="J24" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>10</v>
+      <c r="K24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P24" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S24" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>10</v>
@@ -5753,7 +7037,7 @@
         <v>225</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>105</v>
@@ -5761,46 +7045,52 @@
       <c r="J25" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N25" s="0" t="s">
-        <v>10</v>
+      <c r="K25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P25" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S25" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>13</v>
@@ -5809,10 +7099,10 @@
         <v>23</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>30</v>
@@ -5820,46 +7110,52 @@
       <c r="J26" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N26" s="0" t="s">
-        <v>10</v>
+      <c r="K26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P26" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>13</v>
@@ -5868,10 +7164,10 @@
         <v>23</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>30</v>
@@ -5879,46 +7175,52 @@
       <c r="J27" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>10</v>
+      <c r="K27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P27" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S27" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>13</v>
@@ -5927,10 +7229,10 @@
         <v>23</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>30</v>
@@ -5938,46 +7240,52 @@
       <c r="J28" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" s="0" t="s">
-        <v>10</v>
+      <c r="K28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P28" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S28" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>13</v>
@@ -5986,10 +7294,10 @@
         <v>23</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>30</v>
@@ -5997,46 +7305,52 @@
       <c r="J29" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>10</v>
+      <c r="K29" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P29" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q29" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S29" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>13</v>
@@ -6045,10 +7359,10 @@
         <v>23</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>30</v>
@@ -6056,46 +7370,52 @@
       <c r="J30" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" s="0" t="s">
-        <v>10</v>
+      <c r="K30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P30" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S30" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>13</v>
@@ -6104,10 +7424,10 @@
         <v>23</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>30</v>
@@ -6115,209 +7435,233 @@
       <c r="J31" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N31" s="0" t="s">
-        <v>10</v>
+      <c r="K31" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P31" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q31" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S31" s="0" t="s">
         <v>13</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>312</v>
-      </c>
       <c r="H32" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="0" t="s">
-        <v>10</v>
+      <c r="K32" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P32" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q32" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S32" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>312</v>
-      </c>
       <c r="H33" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" s="0" t="s">
-        <v>10</v>
+      <c r="K33" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P33" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q33" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S33" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>336</v>
-      </c>
       <c r="H34" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N34" s="0" t="s">
-        <v>10</v>
+      <c r="K34" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P34" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="Q34" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="S34" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -6338,18 +7682,18 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M2:N34 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/testcases/case24_ieee_rts.xlsx
+++ b/testcases/case24_ieee_rts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="477" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="411" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="busbar" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="350">
   <si>
     <t>name</t>
   </si>
@@ -327,435 +327,441 @@
     <t>contingency</t>
   </si>
   <si>
+    <t>probablity</t>
+  </si>
+  <si>
+    <t>L1-12</t>
+  </si>
+  <si>
+    <t>0.0026</t>
+  </si>
+  <si>
+    <t>0.0139</t>
+  </si>
+  <si>
+    <t>0.4611</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>-360</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>L2-13</t>
+  </si>
+  <si>
+    <t>0.0546</t>
+  </si>
+  <si>
+    <t>0.2112</t>
+  </si>
+  <si>
+    <t>0.0572</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>L3-15</t>
+  </si>
+  <si>
+    <t>0.0218</t>
+  </si>
+  <si>
+    <t>0.0845</t>
+  </si>
+  <si>
+    <t>0.0229</t>
+  </si>
+  <si>
+    <t>L4-24</t>
+  </si>
+  <si>
+    <t>0.0328</t>
+  </si>
+  <si>
+    <t>0.1267</t>
+  </si>
+  <si>
+    <t>0.0343</t>
+  </si>
+  <si>
+    <t>L5-26</t>
+  </si>
+  <si>
+    <t>0.0497</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>L6-39</t>
+  </si>
+  <si>
+    <t>0.0308</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>0.0322</t>
+  </si>
+  <si>
+    <t>L7-49</t>
+  </si>
+  <si>
+    <t>0.0268</t>
+  </si>
+  <si>
+    <t>0.1037</t>
+  </si>
+  <si>
+    <t>0.0281</t>
+  </si>
+  <si>
+    <t>L8-510</t>
+  </si>
+  <si>
+    <t>0.0228</t>
+  </si>
+  <si>
+    <t>0.0883</t>
+  </si>
+  <si>
+    <t>0.0239</t>
+  </si>
+  <si>
+    <t>L9-610</t>
+  </si>
+  <si>
+    <t>0.0605</t>
+  </si>
+  <si>
+    <t>2.459</t>
+  </si>
+  <si>
+    <t>L10-78</t>
+  </si>
+  <si>
+    <t>0.0159</t>
+  </si>
+  <si>
+    <t>0.0614</t>
+  </si>
+  <si>
+    <t>0.0166</t>
+  </si>
+  <si>
+    <t>L11-89</t>
+  </si>
+  <si>
+    <t>0.0427</t>
+  </si>
+  <si>
+    <t>0.1651</t>
+  </si>
+  <si>
+    <t>0.0447</t>
+  </si>
+  <si>
+    <t>L12-810</t>
+  </si>
+  <si>
+    <t>L13-1113</t>
+  </si>
+  <si>
+    <t>0.0061</t>
+  </si>
+  <si>
+    <t>0.0476</t>
+  </si>
+  <si>
+    <t>0.0999</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>L14-1114</t>
+  </si>
+  <si>
+    <t>0.0054</t>
+  </si>
+  <si>
+    <t>0.0418</t>
+  </si>
+  <si>
+    <t>0.0879</t>
+  </si>
+  <si>
+    <t>L15-1213</t>
+  </si>
+  <si>
+    <t>L16-1223</t>
+  </si>
+  <si>
+    <t>0.0124</t>
+  </si>
+  <si>
+    <t>0.0966</t>
+  </si>
+  <si>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>L17-1323</t>
+  </si>
+  <si>
+    <t>0.0111</t>
+  </si>
+  <si>
+    <t>0.0865</t>
+  </si>
+  <si>
+    <t>0.1818</t>
+  </si>
+  <si>
+    <t>L18-1416</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.0389</t>
+  </si>
+  <si>
+    <t>0.0818</t>
+  </si>
+  <si>
+    <t>L19-1516</t>
+  </si>
+  <si>
+    <t>0.0022</t>
+  </si>
+  <si>
+    <t>0.0173</t>
+  </si>
+  <si>
+    <t>0.0364</t>
+  </si>
+  <si>
+    <t>L20-1521</t>
+  </si>
+  <si>
+    <t>0.0063</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>L21-1521</t>
+  </si>
+  <si>
+    <t>L22-1524</t>
+  </si>
+  <si>
+    <t>0.0067</t>
+  </si>
+  <si>
+    <t>0.0519</t>
+  </si>
+  <si>
+    <t>0.1091</t>
+  </si>
+  <si>
+    <t>L23-1617</t>
+  </si>
+  <si>
+    <t>0.0033</t>
+  </si>
+  <si>
+    <t>0.0259</t>
+  </si>
+  <si>
+    <t>0.0545</t>
+  </si>
+  <si>
+    <t>L24-1619</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.0231</t>
+  </si>
+  <si>
+    <t>0.0485</t>
+  </si>
+  <si>
+    <t>L25-1718</t>
+  </si>
+  <si>
+    <t>0.0018</t>
+  </si>
+  <si>
+    <t>0.0144</t>
+  </si>
+  <si>
+    <t>0.0303</t>
+  </si>
+  <si>
+    <t>L26-1722</t>
+  </si>
+  <si>
+    <t>0.0135</t>
+  </si>
+  <si>
+    <t>0.1053</t>
+  </si>
+  <si>
+    <t>0.2212</t>
+  </si>
+  <si>
+    <t>L27-1821</t>
+  </si>
+  <si>
+    <t>L28-1821</t>
+  </si>
+  <si>
+    <t>L29-1920</t>
+  </si>
+  <si>
+    <t>0.0051</t>
+  </si>
+  <si>
+    <t>0.0396</t>
+  </si>
+  <si>
+    <t>0.0833</t>
+  </si>
+  <si>
+    <t>L30-1920</t>
+  </si>
+  <si>
+    <t>L31-2023</t>
+  </si>
+  <si>
+    <t>0.0028</t>
+  </si>
+  <si>
+    <t>0.0216</t>
+  </si>
+  <si>
+    <t>0.0455</t>
+  </si>
+  <si>
+    <t>L32-2023</t>
+  </si>
+  <si>
+    <t>L33-2122</t>
+  </si>
+  <si>
+    <t>0.0087</t>
+  </si>
+  <si>
+    <t>0.0678</t>
+  </si>
+  <si>
+    <t>0.1424</t>
+  </si>
+  <si>
+    <t>PhaseShift</t>
+  </si>
+  <si>
+    <t>TapRatio</t>
+  </si>
+  <si>
+    <t>TapLB</t>
+  </si>
+  <si>
+    <t>TapUB</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>T1-324</t>
+  </si>
+  <si>
+    <t>0.0023</t>
+  </si>
+  <si>
+    <t>0.0839</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>0.9785</t>
+  </si>
+  <si>
+    <t>1.0815</t>
+  </si>
+  <si>
+    <t>T2-911</t>
+  </si>
+  <si>
+    <t>T3-912</t>
+  </si>
+  <si>
+    <t>T4-1011</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>1.071</t>
+  </si>
+  <si>
+    <t>T5-1012</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>QG</t>
+  </si>
+  <si>
+    <t>PGLB</t>
+  </si>
+  <si>
+    <t>PGUB</t>
+  </si>
+  <si>
+    <t>QGLB</t>
+  </si>
+  <si>
+    <t>QGUB</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
     <t>failure_rate(1/yr)</t>
   </si>
   <si>
-    <t>L1-12</t>
-  </si>
-  <si>
-    <t>0.0026</t>
-  </si>
-  <si>
-    <t>0.0139</t>
-  </si>
-  <si>
-    <t>0.4611</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>-360</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>L2-13</t>
-  </si>
-  <si>
-    <t>0.0546</t>
-  </si>
-  <si>
-    <t>0.2112</t>
-  </si>
-  <si>
-    <t>0.0572</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>L3-15</t>
-  </si>
-  <si>
-    <t>0.0218</t>
-  </si>
-  <si>
-    <t>0.0845</t>
-  </si>
-  <si>
-    <t>0.0229</t>
-  </si>
-  <si>
-    <t>L4-24</t>
-  </si>
-  <si>
-    <t>0.0328</t>
-  </si>
-  <si>
-    <t>0.1267</t>
-  </si>
-  <si>
-    <t>0.0343</t>
-  </si>
-  <si>
-    <t>L5-26</t>
-  </si>
-  <si>
-    <t>0.0497</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>L6-39</t>
-  </si>
-  <si>
-    <t>0.0308</t>
-  </si>
-  <si>
-    <t>0.119</t>
-  </si>
-  <si>
-    <t>0.0322</t>
-  </si>
-  <si>
-    <t>L7-49</t>
-  </si>
-  <si>
-    <t>0.0268</t>
-  </si>
-  <si>
-    <t>0.1037</t>
-  </si>
-  <si>
-    <t>0.0281</t>
-  </si>
-  <si>
-    <t>L8-510</t>
-  </si>
-  <si>
-    <t>0.0228</t>
-  </si>
-  <si>
-    <t>0.0883</t>
-  </si>
-  <si>
-    <t>0.0239</t>
-  </si>
-  <si>
-    <t>L9-610</t>
-  </si>
-  <si>
-    <t>0.0605</t>
-  </si>
-  <si>
-    <t>2.459</t>
-  </si>
-  <si>
-    <t>L10-78</t>
-  </si>
-  <si>
-    <t>0.0159</t>
-  </si>
-  <si>
-    <t>0.0614</t>
-  </si>
-  <si>
-    <t>0.0166</t>
-  </si>
-  <si>
-    <t>L11-89</t>
-  </si>
-  <si>
-    <t>0.0427</t>
-  </si>
-  <si>
-    <t>0.1651</t>
-  </si>
-  <si>
-    <t>0.0447</t>
-  </si>
-  <si>
-    <t>L12-810</t>
-  </si>
-  <si>
-    <t>L13-1113</t>
-  </si>
-  <si>
-    <t>0.0061</t>
-  </si>
-  <si>
-    <t>0.0476</t>
-  </si>
-  <si>
-    <t>0.0999</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>L14-1114</t>
-  </si>
-  <si>
-    <t>0.0054</t>
-  </si>
-  <si>
-    <t>0.0418</t>
-  </si>
-  <si>
-    <t>0.0879</t>
-  </si>
-  <si>
-    <t>L15-1213</t>
-  </si>
-  <si>
-    <t>L16-1223</t>
-  </si>
-  <si>
-    <t>0.0124</t>
-  </si>
-  <si>
-    <t>0.0966</t>
-  </si>
-  <si>
-    <t>0.203</t>
-  </si>
-  <si>
-    <t>L17-1323</t>
-  </si>
-  <si>
-    <t>0.0111</t>
-  </si>
-  <si>
-    <t>0.0865</t>
-  </si>
-  <si>
-    <t>0.1818</t>
-  </si>
-  <si>
-    <t>L18-1416</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>0.0389</t>
-  </si>
-  <si>
-    <t>0.0818</t>
-  </si>
-  <si>
-    <t>L19-1516</t>
-  </si>
-  <si>
-    <t>0.0022</t>
-  </si>
-  <si>
-    <t>0.0173</t>
-  </si>
-  <si>
-    <t>0.0364</t>
-  </si>
-  <si>
-    <t>L20-1521</t>
-  </si>
-  <si>
-    <t>0.0063</t>
-  </si>
-  <si>
-    <t>0.049</t>
-  </si>
-  <si>
-    <t>0.103</t>
-  </si>
-  <si>
-    <t>L21-1521</t>
-  </si>
-  <si>
-    <t>L22-1524</t>
-  </si>
-  <si>
-    <t>0.0067</t>
-  </si>
-  <si>
-    <t>0.0519</t>
-  </si>
-  <si>
-    <t>0.1091</t>
-  </si>
-  <si>
-    <t>L23-1617</t>
-  </si>
-  <si>
-    <t>0.0033</t>
-  </si>
-  <si>
-    <t>0.0259</t>
-  </si>
-  <si>
-    <t>0.0545</t>
-  </si>
-  <si>
-    <t>L24-1619</t>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t>0.0231</t>
-  </si>
-  <si>
-    <t>0.0485</t>
-  </si>
-  <si>
-    <t>L25-1718</t>
-  </si>
-  <si>
-    <t>0.0018</t>
-  </si>
-  <si>
-    <t>0.0144</t>
-  </si>
-  <si>
-    <t>0.0303</t>
-  </si>
-  <si>
-    <t>L26-1722</t>
-  </si>
-  <si>
-    <t>0.0135</t>
-  </si>
-  <si>
-    <t>0.1053</t>
-  </si>
-  <si>
-    <t>0.2212</t>
-  </si>
-  <si>
-    <t>L27-1821</t>
-  </si>
-  <si>
-    <t>L28-1821</t>
-  </si>
-  <si>
-    <t>L29-1920</t>
-  </si>
-  <si>
-    <t>0.0051</t>
-  </si>
-  <si>
-    <t>0.0396</t>
-  </si>
-  <si>
-    <t>0.0833</t>
-  </si>
-  <si>
-    <t>L30-1920</t>
-  </si>
-  <si>
-    <t>L31-2023</t>
-  </si>
-  <si>
-    <t>0.0028</t>
-  </si>
-  <si>
-    <t>0.0216</t>
-  </si>
-  <si>
-    <t>0.0455</t>
-  </si>
-  <si>
-    <t>L32-2023</t>
-  </si>
-  <si>
-    <t>L33-2122</t>
-  </si>
-  <si>
-    <t>0.0087</t>
-  </si>
-  <si>
-    <t>0.0678</t>
-  </si>
-  <si>
-    <t>0.1424</t>
-  </si>
-  <si>
-    <t>PhaseShift</t>
-  </si>
-  <si>
-    <t>TapRatio</t>
-  </si>
-  <si>
-    <t>TapLB</t>
-  </si>
-  <si>
-    <t>TapUB</t>
-  </si>
-  <si>
-    <t>T1-324</t>
-  </si>
-  <si>
-    <t>0.0023</t>
-  </si>
-  <si>
-    <t>0.0839</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>0.9785</t>
-  </si>
-  <si>
-    <t>1.0815</t>
-  </si>
-  <si>
-    <t>T2-911</t>
-  </si>
-  <si>
-    <t>T3-912</t>
-  </si>
-  <si>
-    <t>T4-1011</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>0.969</t>
-  </si>
-  <si>
-    <t>1.071</t>
-  </si>
-  <si>
-    <t>T5-1012</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>QG</t>
-  </si>
-  <si>
-    <t>PGLB</t>
-  </si>
-  <si>
-    <t>PGUB</t>
-  </si>
-  <si>
-    <t>QGLB</t>
-  </si>
-  <si>
-    <t>QGUB</t>
-  </si>
-  <si>
-    <t>VS</t>
-  </si>
-  <si>
     <t>GL</t>
   </si>
   <si>
@@ -793,6 +799,9 @@
   </si>
   <si>
     <t>FuelType</t>
+  </si>
+  <si>
+    <t>probabality</t>
   </si>
   <si>
     <t>startup</t>
@@ -1240,7 +1249,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1282,6 +1291,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1337,7 +1350,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="1" sqref="M2:N34 D33"/>
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2164,7 +2177,7 @@
   <dimension ref="A1:AL65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="M2:N34 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2173,121 +2186,121 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
     </row>
-    <row r="2" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row r="2" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
@@ -3073,7 +3086,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="M2:N34 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3086,7 +3099,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,7 +3137,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M2:N34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3511,7 +3524,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="M2:N34 A2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3560,7 +3573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -3594,14 +3607,14 @@
       <c r="K2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>108</v>
       </c>
@@ -3635,14 +3648,14 @@
       <c r="K3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>113</v>
       </c>
@@ -3676,14 +3689,14 @@
       <c r="K4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>117</v>
       </c>
@@ -3717,14 +3730,14 @@
       <c r="K5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>121</v>
       </c>
@@ -3758,14 +3771,14 @@
       <c r="K6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -3799,14 +3812,14 @@
       <c r="K7" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>129</v>
       </c>
@@ -3840,14 +3853,14 @@
       <c r="K8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>133</v>
       </c>
@@ -3881,14 +3894,14 @@
       <c r="K9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>137</v>
       </c>
@@ -3922,14 +3935,14 @@
       <c r="K10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>140</v>
       </c>
@@ -3963,14 +3976,14 @@
       <c r="K11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>144</v>
       </c>
@@ -4004,14 +4017,14 @@
       <c r="K12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>148</v>
       </c>
@@ -4045,14 +4058,14 @@
       <c r="K13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>149</v>
       </c>
@@ -4086,14 +4099,14 @@
       <c r="K14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>155</v>
       </c>
@@ -4127,14 +4140,14 @@
       <c r="K15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>159</v>
       </c>
@@ -4168,14 +4181,14 @@
       <c r="K16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>160</v>
       </c>
@@ -4209,14 +4222,14 @@
       <c r="K17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>164</v>
       </c>
@@ -4250,14 +4263,14 @@
       <c r="K18" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>168</v>
       </c>
@@ -4291,14 +4304,14 @@
       <c r="K19" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>172</v>
       </c>
@@ -4332,14 +4345,14 @@
       <c r="K20" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>176</v>
       </c>
@@ -4373,14 +4386,14 @@
       <c r="K21" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>180</v>
       </c>
@@ -4414,14 +4427,14 @@
       <c r="K22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>181</v>
       </c>
@@ -4455,14 +4468,14 @@
       <c r="K23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>185</v>
       </c>
@@ -4496,14 +4509,14 @@
       <c r="K24" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>189</v>
       </c>
@@ -4537,14 +4550,14 @@
       <c r="K25" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>193</v>
       </c>
@@ -4578,14 +4591,14 @@
       <c r="K26" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>197</v>
       </c>
@@ -4619,14 +4632,14 @@
       <c r="K27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>201</v>
       </c>
@@ -4660,14 +4673,14 @@
       <c r="K28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>202</v>
       </c>
@@ -4701,14 +4714,14 @@
       <c r="K29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>203</v>
       </c>
@@ -4742,14 +4755,14 @@
       <c r="K30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>207</v>
       </c>
@@ -4783,14 +4796,14 @@
       <c r="K31" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>208</v>
       </c>
@@ -4824,14 +4837,14 @@
       <c r="K32" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>212</v>
       </c>
@@ -4865,14 +4878,14 @@
       <c r="K33" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
         <v>213</v>
       </c>
@@ -4906,11 +4919,11 @@
       <c r="K34" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>13</v>
+      <c r="L34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7" t="n">
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>
@@ -4931,8 +4944,8 @@
   </sheetPr>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="M2:N34 A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4940,7 +4953,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4987,12 +5000,12 @@
         <v>99</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -5004,16 +5017,16 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>106</v>
@@ -5025,24 +5038,24 @@
         <v>13</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -5054,16 +5067,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>106</v>
@@ -5075,24 +5088,24 @@
         <v>13</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -5104,16 +5117,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>106</v>
@@ -5125,24 +5138,24 @@
         <v>13</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>23</v>
@@ -5154,16 +5167,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>106</v>
@@ -5175,24 +5188,24 @@
         <v>13</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>23</v>
@@ -5204,16 +5217,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>106</v>
@@ -5225,19 +5238,19 @@
         <v>13</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>13</v>
+        <v>235</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>
@@ -5259,7 +5272,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M2:N34 A1"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5278,31 +5291,31 @@
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5324,7 +5337,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="M2:N34 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5340,10 +5353,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>42</v>
@@ -5354,7 +5367,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>13</v>
@@ -5385,7 +5398,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="M2:N34 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5395,19 +5408,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,18 +5456,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2:N34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -5465,58 +5478,61 @@
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>256</v>
+      <c r="Q1" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5524,7 +5540,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
@@ -5548,7 +5564,7 @@
         <v>23</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>100</v>
@@ -5563,25 +5579,28 @@
         <v>2</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S2" s="0" t="s">
-        <v>13</v>
+      <c r="S2" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>264</v>
+        <v>13</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5589,7 +5608,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>10</v>
@@ -5613,7 +5632,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>100</v>
@@ -5628,25 +5647,28 @@
         <v>2</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S3" s="0" t="s">
-        <v>13</v>
+      <c r="S3" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>264</v>
+        <v>13</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,31 +5676,31 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>100</v>
@@ -5693,25 +5715,28 @@
         <v>2</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S4" s="0" t="s">
-        <v>272</v>
+      <c r="S4" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5719,31 +5744,31 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>100</v>
@@ -5758,25 +5783,28 @@
         <v>2</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S5" s="0" t="s">
-        <v>272</v>
+      <c r="S5" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5784,7 +5812,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
@@ -5808,7 +5836,7 @@
         <v>23</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>100</v>
@@ -5823,25 +5851,28 @@
         <v>2</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S6" s="0" t="s">
-        <v>13</v>
+      <c r="S6" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>264</v>
+        <v>13</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5849,7 +5880,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>10</v>
@@ -5873,7 +5904,7 @@
         <v>23</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>100</v>
@@ -5888,25 +5919,28 @@
         <v>2</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S7" s="0" t="s">
-        <v>13</v>
+      <c r="S7" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>264</v>
+        <v>13</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5914,31 +5948,31 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>100</v>
@@ -5953,25 +5987,28 @@
         <v>2</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S8" s="0" t="s">
-        <v>272</v>
+      <c r="S8" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5979,31 +6016,31 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>100</v>
@@ -6018,25 +6055,28 @@
         <v>2</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S9" s="0" t="s">
-        <v>272</v>
+      <c r="S9" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6044,13 +6084,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>13</v>
@@ -6065,10 +6105,10 @@
         <v>13</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>100</v>
@@ -6083,25 +6123,28 @@
         <v>2</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S10" s="0" t="s">
-        <v>284</v>
+      <c r="S10" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6109,13 +6152,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>13</v>
@@ -6130,10 +6173,10 @@
         <v>13</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>100</v>
@@ -6148,25 +6191,28 @@
         <v>2</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S11" s="0" t="s">
-        <v>284</v>
+      <c r="S11" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6174,13 +6220,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>13</v>
@@ -6195,10 +6241,10 @@
         <v>13</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>100</v>
@@ -6213,25 +6259,28 @@
         <v>2</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R12" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S12" s="0" t="s">
-        <v>284</v>
+      <c r="S12" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6239,31 +6288,31 @@
         <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>100</v>
@@ -6278,25 +6327,28 @@
         <v>2</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S13" s="0" t="s">
-        <v>293</v>
+      <c r="S13" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,31 +6356,31 @@
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>100</v>
@@ -6343,25 +6395,28 @@
         <v>2</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R14" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S14" s="0" t="s">
-        <v>293</v>
+      <c r="S14" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6369,31 +6424,31 @@
         <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>100</v>
@@ -6408,25 +6463,28 @@
         <v>2</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S15" s="0" t="s">
-        <v>293</v>
+      <c r="S15" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6434,7 +6492,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>10</v>
@@ -6443,7 +6501,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>13</v>
@@ -6452,13 +6510,13 @@
         <v>13</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>105</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>100</v>
@@ -6473,24 +6531,27 @@
         <v>2</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R16" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S16" s="0" t="s">
-        <v>13</v>
+      <c r="S16" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="U16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="V16" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6499,7 +6560,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>10</v>
@@ -6511,7 +6572,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>26</v>
@@ -6523,7 +6584,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>100</v>
@@ -6538,25 +6599,28 @@
         <v>2</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P17" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S17" s="0" t="s">
-        <v>305</v>
+      <c r="S17" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6564,7 +6628,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>10</v>
@@ -6576,7 +6640,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>26</v>
@@ -6588,7 +6652,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>100</v>
@@ -6603,25 +6667,28 @@
         <v>2</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S18" s="0" t="s">
-        <v>305</v>
+      <c r="S18" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6629,7 +6696,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>10</v>
@@ -6641,7 +6708,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>26</v>
@@ -6653,7 +6720,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>100</v>
@@ -6668,25 +6735,28 @@
         <v>2</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S19" s="0" t="s">
-        <v>305</v>
+      <c r="S19" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6694,7 +6764,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>10</v>
@@ -6706,7 +6776,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>26</v>
@@ -6718,7 +6788,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>100</v>
@@ -6733,25 +6803,28 @@
         <v>2</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S20" s="0" t="s">
-        <v>305</v>
+      <c r="S20" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6759,7 +6832,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>10</v>
@@ -6771,7 +6844,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>26</v>
@@ -6783,7 +6856,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>100</v>
@@ -6798,25 +6871,28 @@
         <v>2</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S21" s="0" t="s">
-        <v>305</v>
+      <c r="S21" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6824,31 +6900,31 @@
         <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>100</v>
@@ -6863,25 +6939,28 @@
         <v>2</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S22" s="0" t="s">
-        <v>315</v>
+      <c r="S22" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6889,31 +6968,31 @@
         <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>100</v>
@@ -6928,25 +7007,28 @@
         <v>2</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P23" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S23" s="0" t="s">
-        <v>315</v>
+      <c r="S23" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,13 +7036,13 @@
         <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>13</v>
@@ -6969,10 +7051,10 @@
         <v>81</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>105</v>
@@ -6993,25 +7075,28 @@
         <v>2</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S24" s="0" t="s">
-        <v>321</v>
+      <c r="S24" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7019,13 +7104,13 @@
         <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>13</v>
@@ -7034,10 +7119,10 @@
         <v>81</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>105</v>
@@ -7058,25 +7143,28 @@
         <v>2</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P25" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S25" s="0" t="s">
-        <v>321</v>
+      <c r="S25" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7084,13 +7172,13 @@
         <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>13</v>
@@ -7099,10 +7187,10 @@
         <v>23</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>30</v>
@@ -7123,25 +7211,28 @@
         <v>2</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S26" s="0" t="s">
-        <v>13</v>
+      <c r="S26" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7149,13 +7240,13 @@
         <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>329</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>326</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>13</v>
@@ -7164,10 +7255,10 @@
         <v>23</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>30</v>
@@ -7188,25 +7279,28 @@
         <v>2</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P27" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S27" s="0" t="s">
-        <v>13</v>
+      <c r="S27" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7214,13 +7308,13 @@
         <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>13</v>
@@ -7229,10 +7323,10 @@
         <v>23</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>30</v>
@@ -7253,25 +7347,28 @@
         <v>2</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P28" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R28" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S28" s="0" t="s">
-        <v>13</v>
+      <c r="S28" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7279,13 +7376,13 @@
         <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>13</v>
@@ -7294,10 +7391,10 @@
         <v>23</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>30</v>
@@ -7318,25 +7415,28 @@
         <v>2</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P29" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R29" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S29" s="0" t="s">
-        <v>13</v>
+      <c r="S29" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,13 +7444,13 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>13</v>
@@ -7359,10 +7459,10 @@
         <v>23</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>30</v>
@@ -7383,25 +7483,28 @@
         <v>2</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P30" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S30" s="0" t="s">
-        <v>13</v>
+      <c r="S30" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
+      </c>
+      <c r="V30" s="0" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7409,13 +7512,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>13</v>
@@ -7424,10 +7527,10 @@
         <v>23</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>30</v>
@@ -7448,25 +7551,28 @@
         <v>2</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P31" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R31" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S31" s="0" t="s">
-        <v>13</v>
+      <c r="S31" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
+      </c>
+      <c r="V31" s="0" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7474,28 +7580,28 @@
         <v>37</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>15</v>
@@ -7513,25 +7619,28 @@
         <v>2</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S32" s="0" t="s">
-        <v>315</v>
+      <c r="S32" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
+      </c>
+      <c r="V32" s="0" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7539,28 +7648,28 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>15</v>
@@ -7578,25 +7687,28 @@
         <v>2</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P33" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R33" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S33" s="0" t="s">
-        <v>315</v>
+      <c r="S33" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
+      </c>
+      <c r="V33" s="0" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7604,28 +7716,28 @@
         <v>37</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>15</v>
@@ -7643,25 +7755,28 @@
         <v>2</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P34" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>100</v>
+        <v>0.001</v>
       </c>
       <c r="R34" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="S34" s="0" t="s">
-        <v>340</v>
+      <c r="S34" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
+      </c>
+      <c r="V34" s="0" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -7683,7 +7798,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M2:N34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7693,7 +7808,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/testcases/case24_ieee_rts.xlsx
+++ b/testcases/case24_ieee_rts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="411" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="411" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="busbar" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="demand" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="branch" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="transformer" sheetId="4" state="visible" r:id="rId5"/>
@@ -1349,7 +1349,7 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -4944,7 +4944,7 @@
   </sheetPr>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>

--- a/testcases/case24_ieee_rts.xlsx
+++ b/testcases/case24_ieee_rts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="411" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="528" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="349">
   <si>
     <t>name</t>
   </si>
@@ -678,6 +678,9 @@
     <t>0.1424</t>
   </si>
   <si>
+    <t>bC</t>
+  </si>
+  <si>
     <t>PhaseShift</t>
   </si>
   <si>
@@ -714,9 +717,6 @@
     <t>0.9785</t>
   </si>
   <si>
-    <t>1.0815</t>
-  </si>
-  <si>
     <t>T2-911</t>
   </si>
   <si>
@@ -730,9 +730,6 @@
   </si>
   <si>
     <t>0.969</t>
-  </si>
-  <si>
-    <t>1.071</t>
   </si>
   <si>
     <t>T5-1012</t>
@@ -1124,7 +1121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1197,6 +1194,27 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right style="hair"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
@@ -1249,7 +1267,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1294,11 +1312,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1310,15 +1340,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1349,8 +1379,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1467,8 +1497,8 @@
       <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
+      <c r="E4" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>13</v>
@@ -1678,21 +1708,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
+      <c r="C11" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
+      <c r="E11" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>13</v>
@@ -2126,21 +2156,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>10</v>
+      <c r="C25" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D25" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>10</v>
+      <c r="E25" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>13</v>
@@ -2176,7 +2206,7 @@
   </sheetPr>
   <dimension ref="A1:AL65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2186,121 +2216,121 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
+      <c r="B1" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
     </row>
-    <row r="2" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="2" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
@@ -3085,7 +3115,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3099,7 +3129,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,7 +3166,7 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3523,7 +3553,7 @@
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -4942,13 +4972,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
@@ -4964,48 +4994,54 @@
         <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -5013,11 +5049,11 @@
       <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
+      <c r="D2" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>224</v>
@@ -5025,31 +5061,37 @@
       <c r="G2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="M2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="P2" s="3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="R2" s="12" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -5063,11 +5105,11 @@
       <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
+      <c r="D3" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>224</v>
@@ -5075,31 +5117,37 @@
       <c r="G3" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="M3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="P3" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q3" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="R3" s="12" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -5113,11 +5161,11 @@
       <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
+      <c r="D4" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>224</v>
@@ -5125,31 +5173,37 @@
       <c r="G4" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="M4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="P4" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="R4" s="12" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -5163,11 +5217,11 @@
       <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
+      <c r="D5" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>224</v>
@@ -5175,37 +5229,43 @@
       <c r="G5" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="O5" s="6" t="n">
+      <c r="P5" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q5" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="R5" s="12" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>23</v>
@@ -5213,11 +5273,11 @@
       <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
+      <c r="D6" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>224</v>
@@ -5225,31 +5285,37 @@
       <c r="G6" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>235</v>
-      </c>
       <c r="O6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="4" t="n">
+      <c r="R6" s="13" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -5271,7 +5337,7 @@
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -5291,31 +5357,31 @@
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5336,7 +5402,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5353,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>42</v>
@@ -5367,7 +5433,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>13</v>
@@ -5397,7 +5463,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -5408,19 +5474,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5456,10 +5522,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5478,61 +5544,64 @@
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="11" t="s">
+      <c r="S1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,67 +5609,70 @@
         <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="L2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,67 +5680,70 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="0" t="s">
+      <c r="W3" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5676,67 +5751,70 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>271</v>
       </c>
       <c r="H4" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="K4" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U4" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T4" s="0" t="s">
+      <c r="V4" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="W4" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,67 +5822,70 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>271</v>
+      <c r="D5" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>271</v>
       </c>
       <c r="H5" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="K5" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U5" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="W5" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5812,67 +5893,70 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="I6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" s="0" t="s">
+      <c r="Q6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="U6" s="0" t="s">
+      <c r="W6" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5880,67 +5964,70 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="I7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" s="0" t="s">
+      <c r="Q7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="U7" s="0" t="s">
+      <c r="W7" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="V7" s="0" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5948,67 +6035,70 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>271</v>
+      <c r="D8" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>271</v>
       </c>
       <c r="H8" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="K8" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U8" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="J8" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T8" s="0" t="s">
+      <c r="V8" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="W8" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,67 +6106,70 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>271</v>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>271</v>
       </c>
       <c r="H9" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="K9" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U9" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="J9" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T9" s="0" t="s">
+      <c r="V9" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="W9" s="0" t="s">
         <v>276</v>
-      </c>
-      <c r="V9" s="0" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,67 +6177,70 @@
         <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="L10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U10" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T10" s="0" t="s">
+      <c r="V10" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="W10" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6152,67 +6248,70 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="L11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U11" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T11" s="0" t="s">
+      <c r="V11" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="W11" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6220,67 +6319,70 @@
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="L12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U12" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T12" s="0" t="s">
+      <c r="V12" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="U12" s="0" t="s">
+      <c r="W12" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="V12" s="0" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6288,67 +6390,70 @@
         <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="F13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="I13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U13" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T13" s="0" t="s">
+      <c r="V13" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="U13" s="0" t="s">
+      <c r="W13" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="V13" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6356,67 +6461,70 @@
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="I14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U14" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T14" s="0" t="s">
+      <c r="V14" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="U14" s="0" t="s">
+      <c r="W14" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,67 +6532,70 @@
         <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="I15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U15" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T15" s="0" t="s">
+      <c r="V15" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="U15" s="0" t="s">
+      <c r="W15" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="V15" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6492,66 +6603,69 @@
         <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="G16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="0" t="s">
+      <c r="J16" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="L16" s="0" t="n">
         <v>100</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O16" s="0" t="s">
-        <v>266</v>
+      <c r="O16" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="R16" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="S16" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="T16" s="0" t="s">
-        <v>13</v>
+      <c r="T16" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="U16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="V16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="W16" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6560,67 +6674,70 @@
         <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="I17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="0" t="s">
+      <c r="L17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U17" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T17" s="0" t="s">
+      <c r="V17" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="U17" s="0" t="s">
+      <c r="W17" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="V17" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,67 +6745,70 @@
         <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="0" t="s">
+      <c r="L18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U18" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="K18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T18" s="0" t="s">
+      <c r="V18" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="U18" s="0" t="s">
+      <c r="W18" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="V18" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,67 +6816,70 @@
         <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="0" t="s">
+      <c r="L19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U19" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="K19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T19" s="0" t="s">
+      <c r="V19" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="U19" s="0" t="s">
+      <c r="W19" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="V19" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6764,67 +6887,70 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="0" t="s">
+      <c r="L20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U20" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="K20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T20" s="0" t="s">
+      <c r="V20" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="U20" s="0" t="s">
+      <c r="W20" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="V20" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6832,67 +6958,70 @@
         <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="0" t="s">
+      <c r="L21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U21" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="K21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T21" s="0" t="s">
+      <c r="V21" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="U21" s="0" t="s">
+      <c r="W21" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="V21" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6900,67 +7029,70 @@
         <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F22" s="0" t="s">
-        <v>317</v>
+        <v>13</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>316</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>100</v>
+        <v>283</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>306</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>100</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O22" s="0" t="s">
-        <v>266</v>
+      <c r="O22" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q22" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="R22" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="S22" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="T22" s="0" t="s">
+      <c r="T22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="V22" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="U22" s="0" t="s">
+      <c r="W22" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="V22" s="0" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6968,67 +7100,70 @@
         <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>316</v>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>13</v>
+        <v>315</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>317</v>
+        <v>13</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>316</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>100</v>
+        <v>283</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>321</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>100</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N23" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O23" s="0" t="s">
-        <v>266</v>
+      <c r="O23" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="R23" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="S23" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="T23" s="0" t="s">
+      <c r="T23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="V23" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="U23" s="0" t="s">
+      <c r="W23" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7036,67 +7171,70 @@
         <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U24" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S24" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T24" s="0" t="s">
+      <c r="V24" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="U24" s="0" t="s">
+      <c r="W24" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="V24" s="0" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7104,67 +7242,70 @@
         <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>226</v>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="F25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>226</v>
-      </c>
       <c r="H25" s="0" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="I25" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="J25" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="K25" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="L25" s="0" t="n">
         <v>100</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O25" s="0" t="s">
-        <v>266</v>
+      <c r="O25" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="R25" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="S25" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="T25" s="0" t="s">
+      <c r="T25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="V25" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="U25" s="0" t="s">
+      <c r="W25" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="V25" s="0" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7172,67 +7313,70 @@
         <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="0" t="s">
+      <c r="F26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I26" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="H26" s="0" t="s">
+      <c r="J26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="V26" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="I26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q26" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R26" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S26" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="U26" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="V26" s="0" t="s">
-        <v>331</v>
+      <c r="W26" s="0" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7240,67 +7384,70 @@
         <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I27" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="H27" s="0" t="s">
+      <c r="J27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="V27" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="I27" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S27" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="U27" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="V27" s="0" t="s">
-        <v>331</v>
+      <c r="W27" s="0" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7308,67 +7455,70 @@
         <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I28" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="H28" s="0" t="s">
+      <c r="J28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O28" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R28" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S28" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="U28" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="V28" s="0" t="s">
-        <v>331</v>
+      <c r="W28" s="0" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7376,67 +7526,70 @@
         <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I29" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="H29" s="0" t="s">
+      <c r="J29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="V29" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O29" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="U29" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="V29" s="0" t="s">
-        <v>331</v>
+      <c r="W29" s="0" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7444,67 +7597,70 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I30" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="H30" s="0" t="s">
+      <c r="J30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="V30" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L30" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O30" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q30" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R30" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S30" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="U30" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="V30" s="0" t="s">
-        <v>331</v>
+      <c r="W30" s="0" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7512,67 +7668,70 @@
         <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I31" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="H31" s="0" t="s">
+      <c r="J31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O31" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R31" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S31" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="U31" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="V31" s="0" t="s">
-        <v>331</v>
+      <c r="W31" s="0" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7580,67 +7739,70 @@
         <v>37</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>316</v>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>13</v>
+        <v>315</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>317</v>
+        <v>13</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>316</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="J32" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K32" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="L32" s="0" t="n">
         <v>100</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O32" s="0" t="s">
-        <v>266</v>
+      <c r="O32" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q32" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="R32" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="S32" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="T32" s="0" t="s">
+      <c r="T32" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="V32" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="U32" s="0" t="s">
+      <c r="W32" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="V32" s="0" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7648,67 +7810,70 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>316</v>
+      <c r="D33" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>13</v>
+        <v>315</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>317</v>
+        <v>13</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>316</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="J33" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="L33" s="0" t="n">
         <v>100</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N33" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O33" s="0" t="s">
-        <v>266</v>
+      <c r="O33" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q33" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R33" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="R33" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="S33" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="T33" s="0" t="s">
+      <c r="T33" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="V33" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="U33" s="0" t="s">
+      <c r="W33" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="V33" s="0" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7716,67 +7881,70 @@
         <v>37</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F34" s="0" t="s">
-        <v>341</v>
+        <v>13</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>340</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="I34" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U34" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="J34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O34" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="P34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q34" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R34" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="S34" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T34" s="0" t="s">
+      <c r="V34" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="U34" s="0" t="s">
+      <c r="W34" s="0" t="s">
         <v>344</v>
-      </c>
-      <c r="V34" s="0" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -7797,7 +7965,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7808,7 +7976,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/testcases/case24_ieee_rts.xlsx
+++ b/testcases/case24_ieee_rts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="528" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="528" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="348">
   <si>
     <t>name</t>
   </si>
@@ -676,9 +676,6 @@
   </si>
   <si>
     <t>0.1424</t>
-  </si>
-  <si>
-    <t>bC</t>
   </si>
   <si>
     <t>PhaseShift</t>
@@ -2217,7 +2214,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -2258,7 +2255,7 @@
     </row>
     <row r="2" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>44</v>
@@ -3129,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,7 +3551,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4974,8 +4971,8 @@
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5006,7 +5003,7 @@
         <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>95</v>
@@ -5021,27 +5018,27 @@
         <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -5056,19 +5053,19 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>106</v>
@@ -5080,10 +5077,10 @@
         <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>1.1</v>
@@ -5097,7 +5094,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -5112,19 +5109,19 @@
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>106</v>
@@ -5136,10 +5133,10 @@
         <v>13</v>
       </c>
       <c r="N3" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="P3" s="6" t="n">
         <v>1.1</v>
@@ -5153,7 +5150,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -5168,19 +5165,19 @@
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>106</v>
@@ -5192,10 +5189,10 @@
         <v>13</v>
       </c>
       <c r="N4" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1.1</v>
@@ -5209,7 +5206,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>23</v>
@@ -5224,19 +5221,19 @@
         <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>106</v>
@@ -5248,10 +5245,10 @@
         <v>13</v>
       </c>
       <c r="N5" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1.1</v>
@@ -5265,7 +5262,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>23</v>
@@ -5280,19 +5277,19 @@
         <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="H6" s="9" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>106</v>
@@ -5304,7 +5301,7 @@
         <v>13</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O6" s="9" t="n">
         <v>1</v>
@@ -5357,31 +5354,31 @@
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5419,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>42</v>
@@ -5433,7 +5430,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>13</v>
@@ -5474,19 +5471,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5524,7 +5521,7 @@
   </sheetPr>
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5547,61 +5544,61 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="R1" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,7 +5606,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
@@ -5636,22 +5633,22 @@
         <v>23</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>265</v>
       </c>
       <c r="Q2" s="0" t="s">
         <v>13</v>
@@ -5669,10 +5666,10 @@
         <v>13</v>
       </c>
       <c r="V2" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,7 +5677,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>10</v>
@@ -5707,22 +5704,22 @@
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>265</v>
       </c>
       <c r="Q3" s="0" t="s">
         <v>13</v>
@@ -5740,10 +5737,10 @@
         <v>13</v>
       </c>
       <c r="V3" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="W3" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,49 +5748,49 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>273</v>
-      </c>
       <c r="K4" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>265</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>13</v>
@@ -5808,13 +5805,13 @@
         <v>100</v>
       </c>
       <c r="U4" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="V4" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="W4" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,7 +5819,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
@@ -5831,40 +5828,40 @@
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>273</v>
-      </c>
       <c r="K5" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>265</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>13</v>
@@ -5879,13 +5876,13 @@
         <v>100</v>
       </c>
       <c r="U5" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="V5" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="W5" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5893,7 +5890,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
@@ -5920,22 +5917,22 @@
         <v>23</v>
       </c>
       <c r="K6" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>265</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>13</v>
@@ -5953,10 +5950,10 @@
         <v>13</v>
       </c>
       <c r="V6" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="W6" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5964,7 +5961,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>10</v>
@@ -5991,22 +5988,22 @@
         <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>265</v>
       </c>
       <c r="Q7" s="0" t="s">
         <v>13</v>
@@ -6024,10 +6021,10 @@
         <v>13</v>
       </c>
       <c r="V7" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="W7" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6035,7 +6032,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>10</v>
@@ -6044,40 +6041,40 @@
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="H8" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="I8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="J8" s="0" t="s">
-        <v>273</v>
-      </c>
       <c r="K8" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>265</v>
       </c>
       <c r="Q8" s="0" t="s">
         <v>13</v>
@@ -6092,13 +6089,13 @@
         <v>100</v>
       </c>
       <c r="U8" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="V8" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="W8" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6106,7 +6103,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
@@ -6115,40 +6112,40 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="I9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="J9" s="0" t="s">
-        <v>273</v>
-      </c>
       <c r="K9" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>265</v>
       </c>
       <c r="Q9" s="0" t="s">
         <v>13</v>
@@ -6163,13 +6160,13 @@
         <v>100</v>
       </c>
       <c r="U9" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="V9" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="W9" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="W9" s="0" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6177,7 +6174,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>10</v>
@@ -6186,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>13</v>
@@ -6201,11 +6198,11 @@
         <v>13</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>285</v>
-      </c>
       <c r="L10" s="0" t="n">
         <v>100</v>
       </c>
@@ -6219,7 +6216,7 @@
         <v>2</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="0" t="s">
         <v>13</v>
@@ -6234,13 +6231,13 @@
         <v>100</v>
       </c>
       <c r="U10" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="V10" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="W10" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6248,7 +6245,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
@@ -6257,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>13</v>
@@ -6272,11 +6269,11 @@
         <v>13</v>
       </c>
       <c r="J11" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>285</v>
-      </c>
       <c r="L11" s="0" t="n">
         <v>100</v>
       </c>
@@ -6290,7 +6287,7 @@
         <v>2</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>13</v>
@@ -6305,13 +6302,13 @@
         <v>100</v>
       </c>
       <c r="U11" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="V11" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="V11" s="0" t="s">
+      <c r="W11" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="W11" s="0" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6319,7 +6316,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>10</v>
@@ -6328,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>13</v>
@@ -6343,11 +6340,11 @@
         <v>13</v>
       </c>
       <c r="J12" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>285</v>
-      </c>
       <c r="L12" s="0" t="n">
         <v>100</v>
       </c>
@@ -6361,7 +6358,7 @@
         <v>2</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="0" t="s">
         <v>13</v>
@@ -6376,13 +6373,13 @@
         <v>100</v>
       </c>
       <c r="U12" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="V12" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="V12" s="0" t="s">
+      <c r="W12" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="W12" s="0" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6390,7 +6387,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>10</v>
@@ -6399,25 +6396,25 @@
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>294</v>
-      </c>
       <c r="I13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>100</v>
@@ -6432,7 +6429,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="0" t="s">
         <v>13</v>
@@ -6447,13 +6444,13 @@
         <v>100</v>
       </c>
       <c r="U13" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="V13" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="V13" s="0" t="s">
+      <c r="W13" s="0" t="s">
         <v>296</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6461,7 +6458,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
@@ -6470,25 +6467,25 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>294</v>
-      </c>
       <c r="I14" s="0" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>100</v>
@@ -6503,7 +6500,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="0" t="s">
         <v>13</v>
@@ -6518,13 +6515,13 @@
         <v>100</v>
       </c>
       <c r="U14" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="V14" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="V14" s="0" t="s">
+      <c r="W14" s="0" t="s">
         <v>296</v>
-      </c>
-      <c r="W14" s="0" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,7 +6529,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
@@ -6541,25 +6538,25 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>294</v>
-      </c>
       <c r="I15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>100</v>
@@ -6574,7 +6571,7 @@
         <v>2</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>13</v>
@@ -6589,13 +6586,13 @@
         <v>100</v>
       </c>
       <c r="U15" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="V15" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="V15" s="0" t="s">
+      <c r="W15" s="0" t="s">
         <v>296</v>
-      </c>
-      <c r="W15" s="0" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6603,7 +6600,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>10</v>
@@ -6615,22 +6612,22 @@
         <v>13</v>
       </c>
       <c r="F16" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>302</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>105</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>100</v>
@@ -6645,7 +6642,7 @@
         <v>2</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="0" t="s">
         <v>13</v>
@@ -6674,7 +6671,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>10</v>
@@ -6689,7 +6686,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>26</v>
@@ -6701,7 +6698,7 @@
         <v>19</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>100</v>
@@ -6716,7 +6713,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="0" t="s">
         <v>13</v>
@@ -6731,13 +6728,13 @@
         <v>100</v>
       </c>
       <c r="U17" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="V17" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="V17" s="0" t="s">
+      <c r="W17" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="W17" s="0" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6745,7 +6742,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>10</v>
@@ -6760,7 +6757,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>26</v>
@@ -6772,7 +6769,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>100</v>
@@ -6787,7 +6784,7 @@
         <v>2</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q18" s="0" t="s">
         <v>13</v>
@@ -6802,13 +6799,13 @@
         <v>100</v>
       </c>
       <c r="U18" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="V18" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="V18" s="0" t="s">
+      <c r="W18" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="W18" s="0" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6816,7 +6813,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>10</v>
@@ -6831,7 +6828,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>26</v>
@@ -6843,7 +6840,7 @@
         <v>19</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>100</v>
@@ -6858,7 +6855,7 @@
         <v>2</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="0" t="s">
         <v>13</v>
@@ -6873,13 +6870,13 @@
         <v>100</v>
       </c>
       <c r="U19" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="V19" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="V19" s="0" t="s">
+      <c r="W19" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="W19" s="0" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6887,7 +6884,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>10</v>
@@ -6902,7 +6899,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>26</v>
@@ -6914,7 +6911,7 @@
         <v>19</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>100</v>
@@ -6929,7 +6926,7 @@
         <v>2</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="0" t="s">
         <v>13</v>
@@ -6944,13 +6941,13 @@
         <v>100</v>
       </c>
       <c r="U20" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="V20" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="V20" s="0" t="s">
+      <c r="W20" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6958,7 +6955,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>10</v>
@@ -6973,7 +6970,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>26</v>
@@ -6985,7 +6982,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>100</v>
@@ -7000,7 +6997,7 @@
         <v>2</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>13</v>
@@ -7015,13 +7012,13 @@
         <v>100</v>
       </c>
       <c r="U21" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="V21" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="V21" s="0" t="s">
+      <c r="W21" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="W21" s="0" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7029,7 +7026,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>10</v>
@@ -7038,25 +7035,25 @@
         <v>1</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>316</v>
-      </c>
       <c r="H22" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>100</v>
@@ -7071,7 +7068,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q22" s="0" t="s">
         <v>13</v>
@@ -7086,13 +7083,13 @@
         <v>100</v>
       </c>
       <c r="U22" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="V22" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="V22" s="0" t="s">
+      <c r="W22" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7100,7 +7097,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>10</v>
@@ -7109,25 +7106,25 @@
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>316</v>
-      </c>
       <c r="H23" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>100</v>
@@ -7142,7 +7139,7 @@
         <v>2</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="0" t="s">
         <v>13</v>
@@ -7157,13 +7154,13 @@
         <v>100</v>
       </c>
       <c r="U23" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="V23" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="V23" s="0" t="s">
+      <c r="W23" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7171,7 +7168,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>10</v>
@@ -7180,7 +7177,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>13</v>
@@ -7189,10 +7186,10 @@
         <v>81</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>105</v>
@@ -7213,7 +7210,7 @@
         <v>2</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q24" s="0" t="s">
         <v>13</v>
@@ -7228,13 +7225,13 @@
         <v>100</v>
       </c>
       <c r="U24" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="V24" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="V24" s="0" t="s">
+      <c r="W24" s="0" t="s">
         <v>324</v>
-      </c>
-      <c r="W24" s="0" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7242,7 +7239,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>10</v>
@@ -7251,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>13</v>
@@ -7260,10 +7257,10 @@
         <v>81</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>105</v>
@@ -7284,7 +7281,7 @@
         <v>2</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q25" s="0" t="s">
         <v>13</v>
@@ -7299,13 +7296,13 @@
         <v>100</v>
       </c>
       <c r="U25" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="V25" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="V25" s="0" t="s">
+      <c r="W25" s="0" t="s">
         <v>324</v>
-      </c>
-      <c r="W25" s="0" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7313,7 +7310,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>10</v>
@@ -7322,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>13</v>
@@ -7331,10 +7328,10 @@
         <v>23</v>
       </c>
       <c r="H26" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="I26" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>329</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>30</v>
@@ -7355,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="0" t="s">
         <v>13</v>
@@ -7373,10 +7370,10 @@
         <v>13</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7384,7 +7381,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>10</v>
@@ -7393,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>13</v>
@@ -7402,10 +7399,10 @@
         <v>23</v>
       </c>
       <c r="H27" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="I27" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>329</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>30</v>
@@ -7426,7 +7423,7 @@
         <v>2</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>13</v>
@@ -7444,10 +7441,10 @@
         <v>13</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7455,7 +7452,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>10</v>
@@ -7464,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>13</v>
@@ -7473,10 +7470,10 @@
         <v>23</v>
       </c>
       <c r="H28" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="I28" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>329</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>30</v>
@@ -7497,7 +7494,7 @@
         <v>2</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>13</v>
@@ -7515,10 +7512,10 @@
         <v>13</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7526,7 +7523,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>10</v>
@@ -7535,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>13</v>
@@ -7544,10 +7541,10 @@
         <v>23</v>
       </c>
       <c r="H29" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="I29" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>329</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>30</v>
@@ -7568,7 +7565,7 @@
         <v>2</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>13</v>
@@ -7586,10 +7583,10 @@
         <v>13</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,7 +7594,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>10</v>
@@ -7606,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>13</v>
@@ -7615,10 +7612,10 @@
         <v>23</v>
       </c>
       <c r="H30" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="I30" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>329</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>30</v>
@@ -7639,7 +7636,7 @@
         <v>2</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>13</v>
@@ -7657,10 +7654,10 @@
         <v>13</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7668,7 +7665,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>10</v>
@@ -7677,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>13</v>
@@ -7686,10 +7683,10 @@
         <v>23</v>
       </c>
       <c r="H31" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="I31" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>329</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>30</v>
@@ -7710,7 +7707,7 @@
         <v>2</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>13</v>
@@ -7728,10 +7725,10 @@
         <v>13</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7739,7 +7736,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>10</v>
@@ -7748,22 +7745,22 @@
         <v>1</v>
       </c>
       <c r="E32" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>316</v>
-      </c>
       <c r="H32" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>15</v>
@@ -7781,7 +7778,7 @@
         <v>2</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>13</v>
@@ -7796,13 +7793,13 @@
         <v>100</v>
       </c>
       <c r="U32" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="V32" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="V32" s="0" t="s">
+      <c r="W32" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="W32" s="0" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7810,7 +7807,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>10</v>
@@ -7819,22 +7816,22 @@
         <v>1</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>316</v>
-      </c>
       <c r="H33" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>15</v>
@@ -7852,7 +7849,7 @@
         <v>2</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>13</v>
@@ -7867,13 +7864,13 @@
         <v>100</v>
       </c>
       <c r="U33" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="V33" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="V33" s="0" t="s">
+      <c r="W33" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="W33" s="0" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7881,7 +7878,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>10</v>
@@ -7890,22 +7887,22 @@
         <v>1</v>
       </c>
       <c r="E34" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="0" t="s">
+      <c r="H34" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="J34" s="0" t="s">
         <v>340</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>341</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>15</v>
@@ -7923,7 +7920,7 @@
         <v>2</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>13</v>
@@ -7938,13 +7935,13 @@
         <v>100</v>
       </c>
       <c r="U34" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="V34" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="V34" s="0" t="s">
+      <c r="W34" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="W34" s="0" t="s">
-        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7973,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/testcases/case24_ieee_rts.xlsx
+++ b/testcases/case24_ieee_rts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="528" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,1054 +21,1071 @@
     <sheet name="zone" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="348">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>baseKV</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>zone</t>
-  </si>
-  <si>
-    <t>VM</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>VNLB</t>
-  </si>
-  <si>
-    <t>VNUB</t>
-  </si>
-  <si>
-    <t>VELB</t>
-  </si>
-  <si>
-    <t>VEUB</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>busname</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>reactive</t>
-  </si>
-  <si>
-    <t>stat</t>
-  </si>
-  <si>
-    <t>VOLL</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>D14</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>D15</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>D16</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>D18</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>D19</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>D20</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>from_busname</t>
-  </si>
-  <si>
-    <t>to_busname</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>ShortTermRating</t>
-  </si>
-  <si>
-    <t>ContinousRating</t>
-  </si>
-  <si>
-    <t>angLB</t>
-  </si>
-  <si>
-    <t>angUB</t>
-  </si>
-  <si>
-    <t>contingency</t>
-  </si>
-  <si>
-    <t>probablity</t>
-  </si>
-  <si>
-    <t>L1-12</t>
-  </si>
-  <si>
-    <t>0.0026</t>
-  </si>
-  <si>
-    <t>0.0139</t>
-  </si>
-  <si>
-    <t>0.4611</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>-360</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>L2-13</t>
-  </si>
-  <si>
-    <t>0.0546</t>
-  </si>
-  <si>
-    <t>0.2112</t>
-  </si>
-  <si>
-    <t>0.0572</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>L3-15</t>
-  </si>
-  <si>
-    <t>0.0218</t>
-  </si>
-  <si>
-    <t>0.0845</t>
-  </si>
-  <si>
-    <t>0.0229</t>
-  </si>
-  <si>
-    <t>L4-24</t>
-  </si>
-  <si>
-    <t>0.0328</t>
-  </si>
-  <si>
-    <t>0.1267</t>
-  </si>
-  <si>
-    <t>0.0343</t>
-  </si>
-  <si>
-    <t>L5-26</t>
-  </si>
-  <si>
-    <t>0.0497</t>
-  </si>
-  <si>
-    <t>0.192</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>L6-39</t>
-  </si>
-  <si>
-    <t>0.0308</t>
-  </si>
-  <si>
-    <t>0.119</t>
-  </si>
-  <si>
-    <t>0.0322</t>
-  </si>
-  <si>
-    <t>L7-49</t>
-  </si>
-  <si>
-    <t>0.0268</t>
-  </si>
-  <si>
-    <t>0.1037</t>
-  </si>
-  <si>
-    <t>0.0281</t>
-  </si>
-  <si>
-    <t>L8-510</t>
-  </si>
-  <si>
-    <t>0.0228</t>
-  </si>
-  <si>
-    <t>0.0883</t>
-  </si>
-  <si>
-    <t>0.0239</t>
-  </si>
-  <si>
-    <t>L9-610</t>
-  </si>
-  <si>
-    <t>0.0605</t>
-  </si>
-  <si>
-    <t>2.459</t>
-  </si>
-  <si>
-    <t>L10-78</t>
-  </si>
-  <si>
-    <t>0.0159</t>
-  </si>
-  <si>
-    <t>0.0614</t>
-  </si>
-  <si>
-    <t>0.0166</t>
-  </si>
-  <si>
-    <t>L11-89</t>
-  </si>
-  <si>
-    <t>0.0427</t>
-  </si>
-  <si>
-    <t>0.1651</t>
-  </si>
-  <si>
-    <t>0.0447</t>
-  </si>
-  <si>
-    <t>L12-810</t>
-  </si>
-  <si>
-    <t>L13-1113</t>
-  </si>
-  <si>
-    <t>0.0061</t>
-  </si>
-  <si>
-    <t>0.0476</t>
-  </si>
-  <si>
-    <t>0.0999</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>L14-1114</t>
-  </si>
-  <si>
-    <t>0.0054</t>
-  </si>
-  <si>
-    <t>0.0418</t>
-  </si>
-  <si>
-    <t>0.0879</t>
-  </si>
-  <si>
-    <t>L15-1213</t>
-  </si>
-  <si>
-    <t>L16-1223</t>
-  </si>
-  <si>
-    <t>0.0124</t>
-  </si>
-  <si>
-    <t>0.0966</t>
-  </si>
-  <si>
-    <t>0.203</t>
-  </si>
-  <si>
-    <t>L17-1323</t>
-  </si>
-  <si>
-    <t>0.0111</t>
-  </si>
-  <si>
-    <t>0.0865</t>
-  </si>
-  <si>
-    <t>0.1818</t>
-  </si>
-  <si>
-    <t>L18-1416</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>0.0389</t>
-  </si>
-  <si>
-    <t>0.0818</t>
-  </si>
-  <si>
-    <t>L19-1516</t>
-  </si>
-  <si>
-    <t>0.0022</t>
-  </si>
-  <si>
-    <t>0.0173</t>
-  </si>
-  <si>
-    <t>0.0364</t>
-  </si>
-  <si>
-    <t>L20-1521</t>
-  </si>
-  <si>
-    <t>0.0063</t>
-  </si>
-  <si>
-    <t>0.049</t>
-  </si>
-  <si>
-    <t>0.103</t>
-  </si>
-  <si>
-    <t>L21-1521</t>
-  </si>
-  <si>
-    <t>L22-1524</t>
-  </si>
-  <si>
-    <t>0.0067</t>
-  </si>
-  <si>
-    <t>0.0519</t>
-  </si>
-  <si>
-    <t>0.1091</t>
-  </si>
-  <si>
-    <t>L23-1617</t>
-  </si>
-  <si>
-    <t>0.0033</t>
-  </si>
-  <si>
-    <t>0.0259</t>
-  </si>
-  <si>
-    <t>0.0545</t>
-  </si>
-  <si>
-    <t>L24-1619</t>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t>0.0231</t>
-  </si>
-  <si>
-    <t>0.0485</t>
-  </si>
-  <si>
-    <t>L25-1718</t>
-  </si>
-  <si>
-    <t>0.0018</t>
-  </si>
-  <si>
-    <t>0.0144</t>
-  </si>
-  <si>
-    <t>0.0303</t>
-  </si>
-  <si>
-    <t>L26-1722</t>
-  </si>
-  <si>
-    <t>0.0135</t>
-  </si>
-  <si>
-    <t>0.1053</t>
-  </si>
-  <si>
-    <t>0.2212</t>
-  </si>
-  <si>
-    <t>L27-1821</t>
-  </si>
-  <si>
-    <t>L28-1821</t>
-  </si>
-  <si>
-    <t>L29-1920</t>
-  </si>
-  <si>
-    <t>0.0051</t>
-  </si>
-  <si>
-    <t>0.0396</t>
-  </si>
-  <si>
-    <t>0.0833</t>
-  </si>
-  <si>
-    <t>L30-1920</t>
-  </si>
-  <si>
-    <t>L31-2023</t>
-  </si>
-  <si>
-    <t>0.0028</t>
-  </si>
-  <si>
-    <t>0.0216</t>
-  </si>
-  <si>
-    <t>0.0455</t>
-  </si>
-  <si>
-    <t>L32-2023</t>
-  </si>
-  <si>
-    <t>L33-2122</t>
-  </si>
-  <si>
-    <t>0.0087</t>
-  </si>
-  <si>
-    <t>0.0678</t>
-  </si>
-  <si>
-    <t>0.1424</t>
-  </si>
-  <si>
-    <t>PhaseShift</t>
-  </si>
-  <si>
-    <t>TapRatio</t>
-  </si>
-  <si>
-    <t>TapLB</t>
-  </si>
-  <si>
-    <t>TapUB</t>
-  </si>
-  <si>
-    <t>probability</t>
-  </si>
-  <si>
-    <t>T1-324</t>
-  </si>
-  <si>
-    <t>0.0023</t>
-  </si>
-  <si>
-    <t>0.0839</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>0.9785</t>
-  </si>
-  <si>
-    <t>T2-911</t>
-  </si>
-  <si>
-    <t>T3-912</t>
-  </si>
-  <si>
-    <t>T4-1011</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>0.969</t>
-  </si>
-  <si>
-    <t>T5-1012</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>QG</t>
-  </si>
-  <si>
-    <t>PGLB</t>
-  </si>
-  <si>
-    <t>PGUB</t>
-  </si>
-  <si>
-    <t>QGLB</t>
-  </si>
-  <si>
-    <t>QGUB</t>
-  </si>
-  <si>
-    <t>VS</t>
-  </si>
-  <si>
-    <t>failure_rate(1/yr)</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>interconnection_ID</t>
-  </si>
-  <si>
-    <t>from_zone</t>
-  </si>
-  <si>
-    <t>to_zone</t>
-  </si>
-  <si>
-    <t>TransferCapacityTo(MW)</t>
-  </si>
-  <si>
-    <t>TransferCapacityFr(MW)</t>
-  </si>
-  <si>
-    <t>RampDown(MW/hr)</t>
-  </si>
-  <si>
-    <t>RampUp(MW/hr)</t>
-  </si>
-  <si>
-    <t>MinDownTime(hr)</t>
-  </si>
-  <si>
-    <t>MinUpTime(hr)</t>
-  </si>
-  <si>
-    <t>FuelType</t>
-  </si>
-  <si>
-    <t>probabality</t>
-  </si>
-  <si>
-    <t>startup</t>
-  </si>
-  <si>
-    <t>shutdown</t>
-  </si>
-  <si>
-    <t>costc2</t>
-  </si>
-  <si>
-    <t>costc1</t>
-  </si>
-  <si>
-    <t>costc0</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>1.035</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>400.6849</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>0.014142</t>
-  </si>
-  <si>
-    <t>16.0811</t>
-  </si>
-  <si>
-    <t>212.3076</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>1.025</t>
-  </si>
-  <si>
-    <t>0.052672</t>
-  </si>
-  <si>
-    <t>43.6615</t>
-  </si>
-  <si>
-    <t>781.521</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>95.1</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>0.00717</t>
-  </si>
-  <si>
-    <t>48.5804</t>
-  </si>
-  <si>
-    <t>832.7575</t>
-  </si>
-  <si>
-    <t>G13</t>
-  </si>
-  <si>
-    <t>G14</t>
-  </si>
-  <si>
-    <t>G15</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>G16</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>1.014</t>
-  </si>
-  <si>
-    <t>0.328412</t>
-  </si>
-  <si>
-    <t>56.564</t>
-  </si>
-  <si>
-    <t>86.3852</t>
-  </si>
-  <si>
-    <t>G17</t>
-  </si>
-  <si>
-    <t>G18</t>
-  </si>
-  <si>
-    <t>G19</t>
-  </si>
-  <si>
-    <t>G20</t>
-  </si>
-  <si>
-    <t>G21</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>54.3</t>
-  </si>
-  <si>
-    <t>0.008342</t>
-  </si>
-  <si>
-    <t>12.3883</t>
-  </si>
-  <si>
-    <t>382.2391</t>
-  </si>
-  <si>
-    <t>G22</t>
-  </si>
-  <si>
-    <t>1.017</t>
-  </si>
-  <si>
-    <t>G23</t>
-  </si>
-  <si>
-    <t>0.000213</t>
-  </si>
-  <si>
-    <t>4.4231</t>
-  </si>
-  <si>
-    <t>395.3749</t>
-  </si>
-  <si>
-    <t>G24</t>
-  </si>
-  <si>
-    <t>G25</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>G26</t>
-  </si>
-  <si>
-    <t>G27</t>
-  </si>
-  <si>
-    <t>G28</t>
-  </si>
-  <si>
-    <t>G29</t>
-  </si>
-  <si>
-    <t>G30</t>
-  </si>
-  <si>
-    <t>G31</t>
-  </si>
-  <si>
-    <t>G32</t>
-  </si>
-  <si>
-    <t>G33</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>0.004895</t>
-  </si>
-  <si>
-    <t>11.8495</t>
-  </si>
-  <si>
-    <t>665.1094</t>
-  </si>
-  <si>
-    <t>baseMVA</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>timeperiod</t>
-  </si>
-  <si>
-    <t>reserve(MW)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="352">
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseKV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from_busname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to_busname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShortTermRating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContinousRating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contingency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probablity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L4-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L8-510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9-610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L10-78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L11-89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L12-810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L13-1113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L14-1114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L15-1213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L16-1223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L17-1323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L18-1416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L19-1516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L20-1521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L21-1521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L22-1524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23-1617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L24-1619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L25-1718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L26-1722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L27-1821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L28-1821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L29-1920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L30-1920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L31-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L32-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L33-2122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhaseShift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TapRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TapLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TapUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1-324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2-911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3-912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4-1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5-1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QGLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QGUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">failure_rate(1/yr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interconnection_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from_zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to_zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TransferCapacityTo(MW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TransferCapacityFr(MW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RampDown(MW/hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RampUp(MW/hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinDownTime(hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinUpTime(hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FuelType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probabality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shutdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costc0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400.6849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.014142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212.3076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.052672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">781.521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">832.7575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.3852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">382.2391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">395.3749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">665.1094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseMVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeperiod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserve(MW)</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1093,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1376,13 +1393,13 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,285 +1441,285 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
+      <c r="C2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1.05</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
+      <c r="C3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
+      <c r="C4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>1.05</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
+      <c r="C5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
+      <c r="C6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
+      <c r="C7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
+      <c r="C8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
+      <c r="C9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
+      <c r="C10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,442 +1732,442 @@
       <c r="C11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
+      <c r="D11" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
+      <c r="C12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
+      <c r="C13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
+      <c r="C14" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
+      <c r="C15" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
+      <c r="C16" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
+      <c r="C17" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>10</v>
+      <c r="C18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>10</v>
+      <c r="C19" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>10</v>
+      <c r="C20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>10</v>
+      <c r="C21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>12</v>
+      <c r="C22" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>12</v>
+      <c r="C23" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>12</v>
+      <c r="C24" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="I24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,31 +2181,31 @@
         <v>1</v>
       </c>
       <c r="D25" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9" t="n">
         <v>1</v>
       </c>
+      <c r="E25" s="6" t="n">
+        <v>1.05</v>
+      </c>
       <c r="F25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="H25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="I25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2201,20 +2218,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL65536"/>
+  <dimension ref="A1:AL1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="15" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -2255,7 +2272,7 @@
     </row>
     <row r="2" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>44</v>
@@ -3097,7 +3114,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3110,15 +3127,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,29 +3143,15 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3163,13 +3166,13 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3217,7 +3220,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>48</v>
@@ -3535,7 +3538,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3550,13 +3553,13 @@
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,7 +3611,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -3728,7 +3731,7 @@
         <v>117</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -3769,7 +3772,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
@@ -4956,7 +4959,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4971,13 +4974,13 @@
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5074,7 +5077,7 @@
         <v>107</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>227</v>
@@ -5130,7 +5133,7 @@
         <v>107</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>227</v>
@@ -5159,7 +5162,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
@@ -5186,7 +5189,7 @@
         <v>107</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>227</v>
@@ -5242,7 +5245,7 @@
         <v>107</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>232</v>
@@ -5271,7 +5274,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>10</v>
@@ -5298,7 +5301,7 @@
         <v>107</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>232</v>
@@ -5319,7 +5322,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5334,13 +5337,13 @@
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5384,7 +5387,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5399,13 +5402,13 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,7 +5436,7 @@
         <v>245</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>-100</v>
@@ -5445,7 +5448,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5460,13 +5463,13 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5486,27 +5489,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5519,15 +5506,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,13 +5587,19 @@
       <c r="W1" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="X1" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
@@ -5614,11 +5607,12 @@
       <c r="D2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
+      <c r="E2" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">0.5*(I2+J2)</f>
+        <v>5</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>30</v>
@@ -5627,13 +5621,13 @@
         <v>34</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>100</v>
@@ -5648,10 +5642,10 @@
         <v>2</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>0.001</v>
@@ -5663,13 +5657,19 @@
         <v>100</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,7 +5677,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>10</v>
@@ -5685,11 +5685,12 @@
       <c r="D3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>13</v>
+      <c r="E3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">0.5*(I3+J3)</f>
+        <v>5</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>30</v>
@@ -5698,13 +5699,13 @@
         <v>34</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>100</v>
@@ -5719,10 +5720,10 @@
         <v>2</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>0.001</v>
@@ -5734,13 +5735,19 @@
         <v>100</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5748,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>10</v>
@@ -5756,26 +5763,27 @@
       <c r="D4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>13</v>
+      <c r="E4" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">0.5*(I4+J4)</f>
+        <v>2.5</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>100</v>
@@ -5790,10 +5798,10 @@
         <v>2</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>0.001</v>
@@ -5805,13 +5813,19 @@
         <v>100</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5819,7 +5833,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
@@ -5827,26 +5841,27 @@
       <c r="D5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>13</v>
+      <c r="E5" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">0.5*(I5+J5)</f>
+        <v>2.5</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>100</v>
@@ -5861,10 +5876,10 @@
         <v>2</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>0.001</v>
@@ -5876,21 +5891,27 @@
         <v>100</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
@@ -5898,11 +5919,12 @@
       <c r="D6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>13</v>
+      <c r="E6" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">0.5*(I6+J6)</f>
+        <v>5</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>30</v>
@@ -5911,13 +5933,13 @@
         <v>34</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>100</v>
@@ -5932,10 +5954,10 @@
         <v>2</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>0.001</v>
@@ -5947,21 +5969,27 @@
         <v>100</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>10</v>
@@ -5969,11 +5997,12 @@
       <c r="D7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>13</v>
+      <c r="E7" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">0.5*(I7+J7)</f>
+        <v>5</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>30</v>
@@ -5982,13 +6011,13 @@
         <v>34</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>100</v>
@@ -6003,10 +6032,10 @@
         <v>2</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>0.001</v>
@@ -6018,21 +6047,27 @@
         <v>100</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>10</v>
@@ -6040,26 +6075,27 @@
       <c r="D8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>13</v>
+      <c r="E8" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">0.5*(I8+J8)</f>
+        <v>2.5</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>100</v>
@@ -6074,10 +6110,10 @@
         <v>2</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>0.001</v>
@@ -6089,21 +6125,27 @@
         <v>100</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
@@ -6111,26 +6153,27 @@
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>13</v>
+      <c r="E9" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">0.5*(I9+J9)</f>
+        <v>2.5</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>100</v>
@@ -6145,10 +6188,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>0.001</v>
@@ -6160,13 +6203,19 @@
         <v>100</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6174,7 +6223,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>10</v>
@@ -6182,11 +6231,12 @@
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>13</v>
+      <c r="E10" s="0" t="n">
+        <v>57.054</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">0.5*(I10+J10)</f>
+        <v>30</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>61</v>
@@ -6195,13 +6245,13 @@
         <v>81</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>100</v>
@@ -6216,10 +6266,10 @@
         <v>2</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>0.001</v>
@@ -6231,13 +6281,19 @@
         <v>100</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6245,7 +6301,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
@@ -6253,11 +6309,12 @@
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>13</v>
+      <c r="E11" s="0" t="n">
+        <v>57.054</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">0.5*(I11+J11)</f>
+        <v>30</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>61</v>
@@ -6266,13 +6323,13 @@
         <v>81</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>100</v>
@@ -6287,10 +6344,10 @@
         <v>2</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>0.001</v>
@@ -6302,13 +6359,19 @@
         <v>100</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6316,7 +6379,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>10</v>
@@ -6324,11 +6387,12 @@
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>13</v>
+      <c r="E12" s="0" t="n">
+        <v>57.054</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">0.5*(I12+J12)</f>
+        <v>30</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>61</v>
@@ -6337,13 +6401,13 @@
         <v>81</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>100</v>
@@ -6358,10 +6422,10 @@
         <v>2</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R12" s="0" t="n">
         <v>0.001</v>
@@ -6373,13 +6437,19 @@
         <v>100</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6387,7 +6457,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>10</v>
@@ -6395,23 +6465,24 @@
       <c r="D13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>13</v>
+      <c r="E13" s="0" t="n">
+        <v>76.279</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">0.5*(I13+J13)</f>
+        <v>40</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>232</v>
@@ -6429,10 +6500,10 @@
         <v>2</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>0.001</v>
@@ -6444,13 +6515,19 @@
         <v>100</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6458,7 +6535,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
@@ -6466,23 +6543,24 @@
       <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>13</v>
+      <c r="E14" s="0" t="n">
+        <v>76.279</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">0.5*(I14+J14)</f>
+        <v>40</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>232</v>
@@ -6500,10 +6578,10 @@
         <v>2</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R14" s="0" t="n">
         <v>0.001</v>
@@ -6515,13 +6593,19 @@
         <v>100</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6529,7 +6613,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
@@ -6537,23 +6621,24 @@
       <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>13</v>
+      <c r="E15" s="0" t="n">
+        <v>76.279</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">0.5*(I15+J15)</f>
+        <v>40</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>232</v>
@@ -6571,10 +6656,10 @@
         <v>2</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>0.001</v>
@@ -6586,13 +6671,19 @@
         <v>100</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6600,7 +6691,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>10</v>
@@ -6608,26 +6699,27 @@
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>300</v>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">0.5*(I16+J16)</f>
+        <v>75</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>105</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>100</v>
@@ -6642,10 +6734,10 @@
         <v>2</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R16" s="0" t="n">
         <v>0.001</v>
@@ -6657,13 +6749,19 @@
         <v>100</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6671,7 +6769,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>10</v>
@@ -6679,26 +6777,27 @@
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>13</v>
+      <c r="E17" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">0.5*(I17+J17)</f>
+        <v>3</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>100</v>
@@ -6713,10 +6812,10 @@
         <v>2</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>0.001</v>
@@ -6728,13 +6827,19 @@
         <v>100</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6742,7 +6847,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>10</v>
@@ -6750,26 +6855,27 @@
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>13</v>
+      <c r="E18" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">0.5*(I18+J18)</f>
+        <v>3</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>100</v>
@@ -6784,10 +6890,10 @@
         <v>2</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>0.001</v>
@@ -6799,13 +6905,19 @@
         <v>100</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,7 +6925,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>10</v>
@@ -6821,26 +6933,27 @@
       <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>13</v>
+      <c r="E19" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">0.5*(I19+J19)</f>
+        <v>3</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>100</v>
@@ -6855,10 +6968,10 @@
         <v>2</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>0.001</v>
@@ -6870,13 +6983,19 @@
         <v>100</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6884,7 +7003,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>10</v>
@@ -6892,26 +7011,27 @@
       <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>13</v>
+      <c r="E20" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">0.5*(I20+J20)</f>
+        <v>3</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>100</v>
@@ -6926,10 +7046,10 @@
         <v>2</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>0.001</v>
@@ -6941,13 +7061,19 @@
         <v>100</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6955,7 +7081,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>10</v>
@@ -6963,26 +7089,27 @@
       <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>13</v>
+      <c r="E21" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">0.5*(I21+J21)</f>
+        <v>3</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>100</v>
@@ -6997,10 +7124,10 @@
         <v>2</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>0.001</v>
@@ -7012,13 +7139,19 @@
         <v>100</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7026,7 +7159,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>10</v>
@@ -7034,26 +7167,27 @@
       <c r="D22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>13</v>
+      <c r="E22" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">0.5*(I22+J22)</f>
+        <v>15</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>100</v>
@@ -7068,10 +7202,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>0.001</v>
@@ -7083,13 +7217,19 @@
         <v>100</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7097,7 +7237,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>10</v>
@@ -7105,26 +7245,27 @@
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>13</v>
+      <c r="E23" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">0.5*(I23+J23)</f>
+        <v>15</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>100</v>
@@ -7139,10 +7280,10 @@
         <v>2</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>0.001</v>
@@ -7154,13 +7295,19 @@
         <v>100</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7168,7 +7315,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>10</v>
@@ -7176,11 +7323,12 @@
       <c r="D24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>13</v>
+      <c r="E24" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">0.5*(I24+J24)</f>
+        <v>75</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>81</v>
@@ -7189,13 +7337,13 @@
         <v>226</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>105</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>100</v>
@@ -7210,10 +7358,10 @@
         <v>2</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>0.001</v>
@@ -7225,13 +7373,19 @@
         <v>100</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <v>999999</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <v>999999</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7239,7 +7393,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>10</v>
@@ -7247,11 +7401,12 @@
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>13</v>
+      <c r="E25" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">0.5*(I25+J25)</f>
+        <v>75</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>81</v>
@@ -7260,13 +7415,13 @@
         <v>226</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>105</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>100</v>
@@ -7281,10 +7436,10 @@
         <v>2</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>0.001</v>
@@ -7296,13 +7451,19 @@
         <v>100</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <v>999999</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <v>999999</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7310,7 +7471,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>10</v>
@@ -7318,26 +7479,27 @@
       <c r="D26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>13</v>
+      <c r="E26" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">0.5*(I26+J26)</f>
+        <v>3</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>30</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>100</v>
@@ -7352,10 +7514,10 @@
         <v>2</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>0.001</v>
@@ -7367,13 +7529,19 @@
         <v>100</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>92.8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7381,7 +7549,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>10</v>
@@ -7389,26 +7557,27 @@
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>13</v>
+      <c r="E27" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">0.5*(I27+J27)</f>
+        <v>3</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>100</v>
@@ -7423,10 +7592,10 @@
         <v>2</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>0.001</v>
@@ -7438,13 +7607,19 @@
         <v>100</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>92.8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7452,7 +7627,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>10</v>
@@ -7460,26 +7635,27 @@
       <c r="D28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>13</v>
+      <c r="E28" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">0.5*(I28+J28)</f>
+        <v>3</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>23</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>30</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>100</v>
@@ -7494,10 +7670,10 @@
         <v>2</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R28" s="0" t="n">
         <v>0.001</v>
@@ -7509,13 +7685,19 @@
         <v>100</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>92.8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7523,7 +7705,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>10</v>
@@ -7531,26 +7713,27 @@
       <c r="D29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>13</v>
+      <c r="E29" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">0.5*(I29+J29)</f>
+        <v>3</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>30</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>100</v>
@@ -7565,10 +7748,10 @@
         <v>2</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R29" s="0" t="n">
         <v>0.001</v>
@@ -7580,13 +7763,19 @@
         <v>100</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>92.8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7594,7 +7783,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>10</v>
@@ -7602,26 +7791,27 @@
       <c r="D30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>13</v>
+      <c r="E30" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">0.5*(I30+J30)</f>
+        <v>3</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>23</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>30</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>100</v>
@@ -7636,10 +7826,10 @@
         <v>2</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>0.001</v>
@@ -7651,13 +7841,19 @@
         <v>100</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="Y30" s="0" t="n">
+        <v>92.8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7665,7 +7861,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>10</v>
@@ -7673,26 +7869,27 @@
       <c r="D31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>13</v>
+      <c r="E31" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">0.5*(I31+J31)</f>
+        <v>3</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>30</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L31" s="0" t="n">
         <v>100</v>
@@ -7707,10 +7904,10 @@
         <v>2</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31" s="0" t="n">
         <v>0.001</v>
@@ -7722,13 +7919,19 @@
         <v>100</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="Y31" s="0" t="n">
+        <v>92.8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7736,7 +7939,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>10</v>
@@ -7744,26 +7947,27 @@
       <c r="D32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>13</v>
+      <c r="E32" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">0.5*(I32+J32)</f>
+        <v>15</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32" s="0" t="n">
         <v>100</v>
@@ -7778,10 +7982,10 @@
         <v>2</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>0.001</v>
@@ -7793,13 +7997,19 @@
         <v>100</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7807,7 +8017,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>10</v>
@@ -7815,26 +8025,27 @@
       <c r="D33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>13</v>
+      <c r="E33" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">0.5*(I33+J33)</f>
+        <v>15</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L33" s="0" t="n">
         <v>100</v>
@@ -7849,10 +8060,10 @@
         <v>2</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R33" s="0" t="n">
         <v>0.001</v>
@@ -7864,13 +8075,19 @@
         <v>100</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="W33" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7878,7 +8095,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>10</v>
@@ -7886,26 +8103,27 @@
       <c r="D34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>13</v>
+      <c r="E34" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">0.5*(I34+J34)</f>
+        <v>62.5</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>100</v>
@@ -7920,10 +8138,10 @@
         <v>2</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34" s="0" t="n">
         <v>0.001</v>
@@ -7935,19 +8153,25 @@
         <v>100</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="W34" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>82.1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7962,18 +8186,18 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7984,7 +8208,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/testcases/case24_ieee_rts.xlsx
+++ b/testcases/case24_ieee_rts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="351">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -170,9 +170,6 @@
     <t xml:space="preserve">108</t>
   </si>
   <si>
-    <t xml:space="preserve">100000</t>
-  </si>
-  <si>
     <t xml:space="preserve">D2</t>
   </si>
   <si>
@@ -761,6 +758,9 @@
     <t xml:space="preserve">failure_rate(1/yr)</t>
   </si>
   <si>
+    <t xml:space="preserve">offer</t>
+  </si>
+  <si>
     <t xml:space="preserve">GL</t>
   </si>
   <si>
@@ -819,9 +819,6 @@
   </si>
   <si>
     <t xml:space="preserve">bid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offer</t>
   </si>
   <si>
     <t xml:space="preserve">G1</t>
@@ -1394,7 +1391,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="2:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2221,17 +2218,17 @@
   <dimension ref="A1:AL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -2272,58 +2269,58 @@
     </row>
     <row r="2" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
@@ -2354,52 +2351,52 @@
         <v>45</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -2430,52 +2427,52 @@
         <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -2506,52 +2503,52 @@
         <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -2582,52 +2579,52 @@
         <v>45</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -2658,52 +2655,52 @@
         <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -2734,52 +2731,52 @@
         <v>45</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -2810,52 +2807,52 @@
         <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -2886,52 +2883,52 @@
         <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -2962,52 +2959,52 @@
         <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -3038,52 +3035,52 @@
         <v>45</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -3130,12 +3127,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="topLeft" activeCell="J24" activeCellId="1" sqref="2:3 J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3167,7 +3164,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="1" sqref="2:3 B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3195,7 +3192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -3211,19 +3208,19 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>34</v>
@@ -3231,39 +3228,39 @@
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>29</v>
@@ -3271,19 +3268,19 @@
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>28</v>
@@ -3291,179 +3288,179 @@
       <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>34</v>
@@ -3471,68 +3468,68 @@
       <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="E18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>46</v>
+      <c r="F18" s="4" t="n">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
@@ -3554,7 +3551,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="2:3 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3567,45 +3564,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -3617,25 +3614,25 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="L2" s="3" t="n">
         <v>0</v>
@@ -3646,7 +3643,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
@@ -3658,25 +3655,25 @@
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L3" s="6" t="n">
         <v>0</v>
@@ -3687,7 +3684,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>10</v>
@@ -3699,25 +3696,25 @@
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L4" s="6" t="n">
         <v>0</v>
@@ -3728,7 +3725,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
@@ -3740,25 +3737,25 @@
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L5" s="6" t="n">
         <v>0</v>
@@ -3769,7 +3766,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
@@ -3781,25 +3778,25 @@
         <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>0</v>
@@ -3810,7 +3807,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>16</v>
@@ -3822,25 +3819,25 @@
         <v>10</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L7" s="6" t="n">
         <v>0</v>
@@ -3851,7 +3848,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>17</v>
@@ -3863,25 +3860,25 @@
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L8" s="6" t="n">
         <v>0</v>
@@ -3892,7 +3889,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
@@ -3904,25 +3901,25 @@
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L9" s="6" t="n">
         <v>0</v>
@@ -3933,7 +3930,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>19</v>
@@ -3945,25 +3942,25 @@
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="H10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>0</v>
@@ -3974,7 +3971,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
@@ -3986,25 +3983,25 @@
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L11" s="6" t="n">
         <v>0</v>
@@ -4015,7 +4012,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>21</v>
@@ -4027,25 +4024,25 @@
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L12" s="6" t="n">
         <v>0</v>
@@ -4056,7 +4053,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>21</v>
@@ -4068,25 +4065,25 @@
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L13" s="6" t="n">
         <v>0</v>
@@ -4097,7 +4094,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>24</v>
@@ -4109,25 +4106,25 @@
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
@@ -4138,7 +4135,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>24</v>
@@ -4150,25 +4147,25 @@
         <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="H15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L15" s="6" t="n">
         <v>0</v>
@@ -4179,7 +4176,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>26</v>
@@ -4191,25 +4188,25 @@
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L16" s="6" t="n">
         <v>0</v>
@@ -4220,7 +4217,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>26</v>
@@ -4232,25 +4229,25 @@
         <v>10</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="H17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L17" s="6" t="n">
         <v>0</v>
@@ -4261,7 +4258,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>27</v>
@@ -4273,25 +4270,25 @@
         <v>10</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="H18" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>0</v>
@@ -4302,7 +4299,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>28</v>
@@ -4314,25 +4311,25 @@
         <v>10</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="H19" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L19" s="6" t="n">
         <v>0</v>
@@ -4343,7 +4340,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>29</v>
@@ -4355,25 +4352,25 @@
         <v>10</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="H20" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L20" s="6" t="n">
         <v>0</v>
@@ -4384,7 +4381,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>29</v>
@@ -4396,25 +4393,25 @@
         <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="H21" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L21" s="6" t="n">
         <v>0</v>
@@ -4425,7 +4422,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>29</v>
@@ -4437,25 +4434,25 @@
         <v>10</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>179</v>
-      </c>
       <c r="H22" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>0</v>
@@ -4466,7 +4463,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>29</v>
@@ -4478,25 +4475,25 @@
         <v>10</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="H23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L23" s="6" t="n">
         <v>0</v>
@@ -4507,7 +4504,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>30</v>
@@ -4519,25 +4516,25 @@
         <v>10</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="H24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L24" s="6" t="n">
         <v>0</v>
@@ -4548,7 +4545,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>30</v>
@@ -4560,25 +4557,25 @@
         <v>10</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="H25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L25" s="6" t="n">
         <v>0</v>
@@ -4589,7 +4586,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>31</v>
@@ -4601,25 +4598,25 @@
         <v>10</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="H26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L26" s="6" t="n">
         <v>0</v>
@@ -4630,7 +4627,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>31</v>
@@ -4642,25 +4639,25 @@
         <v>10</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="H27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L27" s="6" t="n">
         <v>0</v>
@@ -4671,7 +4668,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>32</v>
@@ -4683,25 +4680,25 @@
         <v>10</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="H28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L28" s="6" t="n">
         <v>0</v>
@@ -4712,7 +4709,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>32</v>
@@ -4724,25 +4721,25 @@
         <v>10</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="H29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L29" s="6" t="n">
         <v>0</v>
@@ -4753,7 +4750,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>33</v>
@@ -4765,25 +4762,25 @@
         <v>10</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="H30" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L30" s="6" t="n">
         <v>0</v>
@@ -4794,7 +4791,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>33</v>
@@ -4806,25 +4803,25 @@
         <v>10</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="H31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L31" s="6" t="n">
         <v>0</v>
@@ -4835,7 +4832,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>34</v>
@@ -4847,25 +4844,25 @@
         <v>10</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="H32" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L32" s="6" t="n">
         <v>0</v>
@@ -4876,7 +4873,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>34</v>
@@ -4888,25 +4885,25 @@
         <v>10</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="H33" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="J33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="L33" s="6" t="n">
         <v>0</v>
@@ -4917,7 +4914,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>35</v>
@@ -4929,25 +4926,25 @@
         <v>10</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>216</v>
-      </c>
       <c r="H34" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="J34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="L34" s="9" t="n">
         <v>0</v>
@@ -4974,8 +4971,8 @@
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="2:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4988,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -5000,48 +4997,48 @@
         <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -5056,34 +5053,34 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>1.1</v>
@@ -5097,7 +5094,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -5112,34 +5109,34 @@
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="P3" s="6" t="n">
         <v>1.1</v>
@@ -5153,7 +5150,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -5168,34 +5165,34 @@
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1.1</v>
@@ -5209,7 +5206,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>23</v>
@@ -5224,34 +5221,34 @@
         <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="K5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="M5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N5" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1.1</v>
@@ -5265,7 +5262,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>23</v>
@@ -5280,31 +5277,31 @@
         <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="H6" s="9" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>226</v>
-      </c>
       <c r="K6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="M6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O6" s="9" t="n">
         <v>1</v>
@@ -5335,10 +5332,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="2:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5357,33 +5354,38 @@
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>242</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5403,7 +5405,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="2:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5464,7 +5466,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5509,7 +5511,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5531,25 +5533,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>251</v>
@@ -5567,7 +5569,7 @@
         <v>255</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>256</v>
@@ -5591,7 +5593,7 @@
         <v>262</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5599,7 +5601,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
@@ -5608,7 +5610,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">0.5*(I2+J2)</f>
@@ -5627,22 +5629,22 @@
         <v>23</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="Q2" s="0" t="s">
         <v>12</v>
@@ -5660,16 +5662,16 @@
         <v>12</v>
       </c>
       <c r="V2" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="W2" s="0" t="s">
-        <v>268</v>
-      </c>
       <c r="X2" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,7 +5679,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>10</v>
@@ -5705,22 +5707,22 @@
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="Q3" s="0" t="s">
         <v>12</v>
@@ -5738,16 +5740,16 @@
         <v>12</v>
       </c>
       <c r="V3" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="W3" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="W3" s="0" t="s">
-        <v>268</v>
-      </c>
       <c r="X3" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5755,7 +5757,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>10</v>
@@ -5771,34 +5773,34 @@
         <v>2.5</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>274</v>
-      </c>
       <c r="K4" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>12</v>
@@ -5813,19 +5815,19 @@
         <v>100</v>
       </c>
       <c r="U4" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="V4" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="W4" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="W4" s="0" t="s">
-        <v>277</v>
-      </c>
       <c r="X4" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5833,7 +5835,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
@@ -5849,34 +5851,34 @@
         <v>2.5</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>274</v>
-      </c>
       <c r="K5" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>12</v>
@@ -5891,19 +5893,19 @@
         <v>100</v>
       </c>
       <c r="U5" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="V5" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="W5" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="W5" s="0" t="s">
-        <v>277</v>
-      </c>
       <c r="X5" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5911,7 +5913,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
@@ -5939,22 +5941,22 @@
         <v>23</v>
       </c>
       <c r="K6" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>12</v>
@@ -5972,16 +5974,16 @@
         <v>12</v>
       </c>
       <c r="V6" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="W6" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="W6" s="0" t="s">
-        <v>268</v>
-      </c>
       <c r="X6" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5989,7 +5991,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>10</v>
@@ -6017,22 +6019,22 @@
         <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="Q7" s="0" t="s">
         <v>12</v>
@@ -6050,16 +6052,16 @@
         <v>12</v>
       </c>
       <c r="V7" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="W7" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="W7" s="0" t="s">
-        <v>268</v>
-      </c>
       <c r="X7" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,7 +6069,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>10</v>
@@ -6083,34 +6085,34 @@
         <v>2.5</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="J8" s="0" t="s">
-        <v>274</v>
-      </c>
       <c r="K8" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="Q8" s="0" t="s">
         <v>12</v>
@@ -6125,19 +6127,19 @@
         <v>100</v>
       </c>
       <c r="U8" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="V8" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="W8" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="W8" s="0" t="s">
-        <v>277</v>
-      </c>
       <c r="X8" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6145,7 +6147,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
@@ -6161,34 +6163,34 @@
         <v>2.5</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="J9" s="0" t="s">
-        <v>274</v>
-      </c>
       <c r="K9" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="Q9" s="0" t="s">
         <v>12</v>
@@ -6203,19 +6205,19 @@
         <v>100</v>
       </c>
       <c r="U9" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="V9" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="W9" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="W9" s="0" t="s">
-        <v>277</v>
-      </c>
       <c r="X9" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6223,7 +6225,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>10</v>
@@ -6239,34 +6241,34 @@
         <v>30</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="L10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>286</v>
       </c>
       <c r="Q10" s="0" t="s">
         <v>12</v>
@@ -6281,19 +6283,19 @@
         <v>100</v>
       </c>
       <c r="U10" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="V10" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="W10" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="W10" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="X10" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6301,7 +6303,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
@@ -6317,34 +6319,34 @@
         <v>30</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="L11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>286</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>12</v>
@@ -6359,19 +6361,19 @@
         <v>100</v>
       </c>
       <c r="U11" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="V11" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="V11" s="0" t="s">
+      <c r="W11" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="W11" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="X11" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,7 +6381,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>10</v>
@@ -6395,34 +6397,34 @@
         <v>30</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="L12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>286</v>
       </c>
       <c r="Q12" s="0" t="s">
         <v>12</v>
@@ -6437,19 +6439,19 @@
         <v>100</v>
       </c>
       <c r="U12" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="V12" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="V12" s="0" t="s">
+      <c r="W12" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="W12" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="X12" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y12" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6457,7 +6459,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>10</v>
@@ -6473,19 +6475,19 @@
         <v>40</v>
       </c>
       <c r="G13" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="I13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>295</v>
-      </c>
       <c r="K13" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>100</v>
@@ -6500,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="0" t="s">
         <v>12</v>
@@ -6515,19 +6517,19 @@
         <v>100</v>
       </c>
       <c r="U13" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="V13" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="V13" s="0" t="s">
+      <c r="W13" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="W13" s="0" t="s">
-        <v>298</v>
-      </c>
       <c r="X13" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6535,7 +6537,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
@@ -6551,19 +6553,19 @@
         <v>40</v>
       </c>
       <c r="G14" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="I14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>295</v>
-      </c>
       <c r="K14" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>100</v>
@@ -6578,7 +6580,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="0" t="s">
         <v>12</v>
@@ -6593,19 +6595,19 @@
         <v>100</v>
       </c>
       <c r="U14" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="V14" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="V14" s="0" t="s">
+      <c r="W14" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="W14" s="0" t="s">
-        <v>298</v>
-      </c>
       <c r="X14" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y14" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6613,7 +6615,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
@@ -6629,19 +6631,19 @@
         <v>40</v>
       </c>
       <c r="G15" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="I15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>295</v>
-      </c>
       <c r="K15" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>100</v>
@@ -6656,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>12</v>
@@ -6671,19 +6673,19 @@
         <v>100</v>
       </c>
       <c r="U15" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="V15" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="V15" s="0" t="s">
+      <c r="W15" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="W15" s="0" t="s">
-        <v>298</v>
-      </c>
       <c r="X15" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6691,7 +6693,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>10</v>
@@ -6713,28 +6715,28 @@
         <v>12</v>
       </c>
       <c r="I16" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="K16" s="0" t="s">
+      <c r="L16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" s="0" t="s">
-        <v>304</v>
       </c>
       <c r="Q16" s="0" t="s">
         <v>12</v>
@@ -6758,10 +6760,10 @@
         <v>12</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y16" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6769,7 +6771,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>10</v>
@@ -6785,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>26</v>
@@ -6797,7 +6799,7 @@
         <v>19</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>100</v>
@@ -6812,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="0" t="s">
         <v>12</v>
@@ -6827,19 +6829,19 @@
         <v>100</v>
       </c>
       <c r="U17" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="V17" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="V17" s="0" t="s">
+      <c r="W17" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="W17" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="X17" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y17" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6847,7 +6849,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>10</v>
@@ -6863,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>26</v>
@@ -6875,7 +6877,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>100</v>
@@ -6890,7 +6892,7 @@
         <v>2</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="0" t="s">
         <v>12</v>
@@ -6905,19 +6907,19 @@
         <v>100</v>
       </c>
       <c r="U18" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="V18" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="V18" s="0" t="s">
+      <c r="W18" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="W18" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="X18" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y18" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6925,7 +6927,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>10</v>
@@ -6941,7 +6943,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>26</v>
@@ -6953,7 +6955,7 @@
         <v>19</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>100</v>
@@ -6968,7 +6970,7 @@
         <v>2</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q19" s="0" t="s">
         <v>12</v>
@@ -6983,19 +6985,19 @@
         <v>100</v>
       </c>
       <c r="U19" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="V19" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="V19" s="0" t="s">
+      <c r="W19" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="W19" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="X19" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y19" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7003,7 +7005,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>10</v>
@@ -7019,7 +7021,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>26</v>
@@ -7031,7 +7033,7 @@
         <v>19</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>100</v>
@@ -7046,7 +7048,7 @@
         <v>2</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="0" t="s">
         <v>12</v>
@@ -7061,19 +7063,19 @@
         <v>100</v>
       </c>
       <c r="U20" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="V20" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="V20" s="0" t="s">
+      <c r="W20" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="W20" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="X20" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y20" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7081,7 +7083,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>10</v>
@@ -7097,7 +7099,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>26</v>
@@ -7109,7 +7111,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>100</v>
@@ -7124,7 +7126,7 @@
         <v>2</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>12</v>
@@ -7139,19 +7141,19 @@
         <v>100</v>
       </c>
       <c r="U21" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="V21" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="V21" s="0" t="s">
+      <c r="W21" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="W21" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="X21" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y21" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7159,7 +7161,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>10</v>
@@ -7175,19 +7177,19 @@
         <v>15</v>
       </c>
       <c r="G22" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="I22" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>100</v>
@@ -7202,7 +7204,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="0" t="s">
         <v>12</v>
@@ -7217,19 +7219,19 @@
         <v>100</v>
       </c>
       <c r="U22" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="V22" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="V22" s="0" t="s">
+      <c r="W22" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="W22" s="0" t="s">
-        <v>320</v>
-      </c>
       <c r="X22" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y22" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7237,7 +7239,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>10</v>
@@ -7253,19 +7255,19 @@
         <v>15</v>
       </c>
       <c r="G23" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="I23" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>100</v>
@@ -7280,7 +7282,7 @@
         <v>2</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q23" s="0" t="s">
         <v>12</v>
@@ -7295,19 +7297,19 @@
         <v>100</v>
       </c>
       <c r="U23" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="V23" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="V23" s="0" t="s">
+      <c r="W23" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="W23" s="0" t="s">
-        <v>320</v>
-      </c>
       <c r="X23" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y23" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7315,7 +7317,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>10</v>
@@ -7331,16 +7333,16 @@
         <v>75</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>14</v>
@@ -7358,7 +7360,7 @@
         <v>2</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q24" s="0" t="s">
         <v>12</v>
@@ -7373,19 +7375,19 @@
         <v>100</v>
       </c>
       <c r="U24" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="V24" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="V24" s="0" t="s">
+      <c r="W24" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="W24" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="X24" s="0" t="n">
-        <v>999999</v>
+        <v>40</v>
       </c>
       <c r="Y24" s="0" t="n">
-        <v>999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7393,7 +7395,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>10</v>
@@ -7409,16 +7411,16 @@
         <v>75</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>14</v>
@@ -7436,7 +7438,7 @@
         <v>2</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="0" t="s">
         <v>12</v>
@@ -7451,19 +7453,19 @@
         <v>100</v>
       </c>
       <c r="U25" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="V25" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="V25" s="0" t="s">
+      <c r="W25" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="W25" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="X25" s="0" t="n">
-        <v>999999</v>
+        <v>40</v>
       </c>
       <c r="Y25" s="0" t="n">
-        <v>999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7471,7 +7473,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>10</v>
@@ -7490,10 +7492,10 @@
         <v>23</v>
       </c>
       <c r="H26" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="I26" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>331</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>30</v>
@@ -7514,7 +7516,7 @@
         <v>2</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q26" s="0" t="s">
         <v>12</v>
@@ -7532,16 +7534,16 @@
         <v>12</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>-13.4</v>
+        <v>40</v>
       </c>
       <c r="Y26" s="0" t="n">
-        <v>92.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7549,7 +7551,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>10</v>
@@ -7568,10 +7570,10 @@
         <v>23</v>
       </c>
       <c r="H27" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="I27" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>331</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>30</v>
@@ -7592,7 +7594,7 @@
         <v>2</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>12</v>
@@ -7610,16 +7612,16 @@
         <v>12</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>-13.4</v>
+        <v>40</v>
       </c>
       <c r="Y27" s="0" t="n">
-        <v>92.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7627,7 +7629,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>10</v>
@@ -7646,10 +7648,10 @@
         <v>23</v>
       </c>
       <c r="H28" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="I28" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>331</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>30</v>
@@ -7670,7 +7672,7 @@
         <v>2</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>12</v>
@@ -7688,16 +7690,16 @@
         <v>12</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>-13.4</v>
+        <v>40</v>
       </c>
       <c r="Y28" s="0" t="n">
-        <v>92.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7705,7 +7707,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>10</v>
@@ -7724,10 +7726,10 @@
         <v>23</v>
       </c>
       <c r="H29" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="I29" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>331</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>30</v>
@@ -7748,7 +7750,7 @@
         <v>2</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>12</v>
@@ -7766,16 +7768,16 @@
         <v>12</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>-13.4</v>
+        <v>40</v>
       </c>
       <c r="Y29" s="0" t="n">
-        <v>92.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7783,7 +7785,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>10</v>
@@ -7802,10 +7804,10 @@
         <v>23</v>
       </c>
       <c r="H30" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="I30" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>331</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>30</v>
@@ -7826,7 +7828,7 @@
         <v>2</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>12</v>
@@ -7844,16 +7846,16 @@
         <v>12</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>-13.4</v>
+        <v>40</v>
       </c>
       <c r="Y30" s="0" t="n">
-        <v>92.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7861,7 +7863,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>10</v>
@@ -7880,10 +7882,10 @@
         <v>23</v>
       </c>
       <c r="H31" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="I31" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>331</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>30</v>
@@ -7904,7 +7906,7 @@
         <v>2</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>12</v>
@@ -7922,16 +7924,16 @@
         <v>12</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>-13.4</v>
+        <v>40</v>
       </c>
       <c r="Y31" s="0" t="n">
-        <v>92.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7939,7 +7941,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>10</v>
@@ -7955,16 +7957,16 @@
         <v>15</v>
       </c>
       <c r="G32" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="H32" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="I32" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>14</v>
@@ -7982,7 +7984,7 @@
         <v>2</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>12</v>
@@ -7997,19 +7999,19 @@
         <v>100</v>
       </c>
       <c r="U32" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="V32" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="V32" s="0" t="s">
+      <c r="W32" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="W32" s="0" t="s">
-        <v>320</v>
-      </c>
       <c r="X32" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8017,7 +8019,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>10</v>
@@ -8033,16 +8035,16 @@
         <v>15</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="I33" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>14</v>
@@ -8060,7 +8062,7 @@
         <v>2</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>12</v>
@@ -8075,19 +8077,19 @@
         <v>100</v>
       </c>
       <c r="U33" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="V33" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="V33" s="0" t="s">
+      <c r="W33" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="W33" s="0" t="s">
-        <v>320</v>
-      </c>
       <c r="X33" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y33" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8095,7 +8097,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>10</v>
@@ -8111,16 +8113,16 @@
         <v>62.5</v>
       </c>
       <c r="G34" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="H34" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="I34" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="J34" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>344</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>14</v>
@@ -8138,7 +8140,7 @@
         <v>2</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>12</v>
@@ -8153,19 +8155,19 @@
         <v>100</v>
       </c>
       <c r="U34" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="V34" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="V34" s="0" t="s">
+      <c r="W34" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="W34" s="0" t="s">
-        <v>347</v>
-      </c>
       <c r="X34" s="0" t="n">
-        <v>-44.2</v>
+        <v>40</v>
       </c>
       <c r="Y34" s="0" t="n">
-        <v>82.1</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -8187,7 +8189,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8197,7 +8199,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
